--- a/All_SFT.xlsx
+++ b/All_SFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joellaiwj/Python Projects/My-SFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7781E8B-09A1-5D48-9A41-69ACC6882C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9940A6C5-4B24-FC41-A800-4805D5F5FAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6452D0D9-7B50-DC4F-A1B1-92307B105887}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="126">
   <si>
     <t>AcadYear</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>Fostered Innovation</t>
+  </si>
+  <si>
+    <t>PAP732</t>
+  </si>
+  <si>
+    <t>Advanced Numerical Methods for Physicist</t>
   </si>
 </sst>
 </file>
@@ -838,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996AF5CA-C387-FD4F-8253-FCE405315E0A}">
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="E365" sqref="E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(E2,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E2,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G2" t="s">
@@ -983,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(E3,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E3,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G3" t="s">
@@ -1044,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(E4,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E4,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G4" t="s">
@@ -1105,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(E5,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E5,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G5" t="s">
@@ -1166,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP(E6,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E6,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G6" t="s">
@@ -1227,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(E7,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E7,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G7" t="s">
@@ -1288,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP(E8,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E8,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G8" t="s">
@@ -1349,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP(E9,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E9,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G9" t="s">
@@ -1410,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(E10,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E10,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G10" t="s">
@@ -1471,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(E11,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E11,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G11" t="s">
@@ -1532,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(E12,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E12,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G12" t="s">
@@ -1593,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP(E13,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E13,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G13" t="s">
@@ -1654,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="str">
-        <f>VLOOKUP(E14,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E14,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G14" t="s">
@@ -1715,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP(E15,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E15,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 1</v>
       </c>
       <c r="G15" t="s">
@@ -1776,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP(E16,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E16,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G16" t="s">
@@ -1837,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(E17,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E17,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G17" t="s">
@@ -1898,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(E18,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E18,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G18" t="s">
@@ -1959,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(E19,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E19,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G19" t="s">
@@ -2020,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(E20,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E20,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G20" t="s">
@@ -2081,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="str">
-        <f>VLOOKUP(E21,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E21,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G21" t="s">
@@ -2142,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="str">
-        <f>VLOOKUP(E22,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E22,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G22" t="s">
@@ -2203,7 +2209,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="str">
-        <f>VLOOKUP(E23,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E23,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G23" t="s">
@@ -2264,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(E24,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E24,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G24" t="s">
@@ -2325,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(E25,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E25,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G25" t="s">
@@ -2386,7 +2392,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="str">
-        <f>VLOOKUP(E26,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E26,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G26" t="s">
@@ -2447,7 +2453,7 @@
         <v>15</v>
       </c>
       <c r="F27" t="str">
-        <f>VLOOKUP(E27,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E27,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G27" t="s">
@@ -2508,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(E28,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E28,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G28" t="s">
@@ -2569,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="F29" t="str">
-        <f>VLOOKUP(E29,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E29,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for the Sciences 2</v>
       </c>
       <c r="G29" t="s">
@@ -2630,7 +2636,7 @@
         <v>38</v>
       </c>
       <c r="F30" t="str">
-        <f>VLOOKUP(E30,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E30,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G30" t="s">
@@ -2691,7 +2697,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="str">
-        <f>VLOOKUP(E31,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E31,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G31" t="s">
@@ -2752,7 +2758,7 @@
         <v>38</v>
       </c>
       <c r="F32" t="str">
-        <f>VLOOKUP(E32,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E32,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G32" t="s">
@@ -2813,7 +2819,7 @@
         <v>38</v>
       </c>
       <c r="F33" t="str">
-        <f>VLOOKUP(E33,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E33,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G33" t="s">
@@ -2874,7 +2880,7 @@
         <v>38</v>
       </c>
       <c r="F34" t="str">
-        <f>VLOOKUP(E34,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E34,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G34" t="s">
@@ -2935,7 +2941,7 @@
         <v>38</v>
       </c>
       <c r="F35" t="str">
-        <f>VLOOKUP(E35,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E35,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G35" t="s">
@@ -2996,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="F36" t="str">
-        <f>VLOOKUP(E36,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E36,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G36" t="s">
@@ -3057,7 +3063,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="str">
-        <f>VLOOKUP(E37,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E37,Courses!E$1:F$21,2,FALSE)</f>
         <v>Quantum Mechanics 1</v>
       </c>
       <c r="G37" t="s">
@@ -3118,7 +3124,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="str">
-        <f>VLOOKUP(E38,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E38,Courses!E$1:F$21,2,FALSE)</f>
         <v>Quantum Mechanics 1</v>
       </c>
       <c r="G38" t="s">
@@ -3179,7 +3185,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="str">
-        <f>VLOOKUP(E39,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E39,Courses!E$1:F$21,2,FALSE)</f>
         <v>Quantum Mechanics 1</v>
       </c>
       <c r="G39" t="s">
@@ -3240,7 +3246,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="str">
-        <f>VLOOKUP(E40,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E40,Courses!E$1:F$21,2,FALSE)</f>
         <v>Quantum Mechanics 1</v>
       </c>
       <c r="G40" t="s">
@@ -3301,7 +3307,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="str">
-        <f>VLOOKUP(E41,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E41,Courses!E$1:F$21,2,FALSE)</f>
         <v>Quantum Mechanics 1</v>
       </c>
       <c r="G41" t="s">
@@ -3362,7 +3368,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="str">
-        <f>VLOOKUP(E42,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E42,Courses!E$1:F$21,2,FALSE)</f>
         <v>Quantum Mechanics 1</v>
       </c>
       <c r="G42" t="s">
@@ -3423,7 +3429,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="str">
-        <f>VLOOKUP(E43,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E43,Courses!E$1:F$21,2,FALSE)</f>
         <v>Quantum Mechanics 1</v>
       </c>
       <c r="G43" t="s">
@@ -3484,7 +3490,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="str">
-        <f>VLOOKUP(E44,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E44,Courses!E$1:F$21,2,FALSE)</f>
         <v>Algorithms for the Real World</v>
       </c>
       <c r="G44" t="s">
@@ -3545,7 +3551,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="str">
-        <f>VLOOKUP(E45,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E45,Courses!E$1:F$21,2,FALSE)</f>
         <v>Algorithms for the Real World</v>
       </c>
       <c r="G45" t="s">
@@ -3606,7 +3612,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="str">
-        <f>VLOOKUP(E46,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E46,Courses!E$1:F$21,2,FALSE)</f>
         <v>Algorithms for the Real World</v>
       </c>
       <c r="G46" t="s">
@@ -3667,7 +3673,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="str">
-        <f>VLOOKUP(E47,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E47,Courses!E$1:F$21,2,FALSE)</f>
         <v>Algorithms for the Real World</v>
       </c>
       <c r="G47" t="s">
@@ -3728,7 +3734,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="str">
-        <f>VLOOKUP(E48,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E48,Courses!E$1:F$21,2,FALSE)</f>
         <v>Algorithms for the Real World</v>
       </c>
       <c r="G48" t="s">
@@ -3789,7 +3795,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="str">
-        <f>VLOOKUP(E49,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E49,Courses!E$1:F$21,2,FALSE)</f>
         <v>Algorithms for the Real World</v>
       </c>
       <c r="G49" t="s">
@@ -3850,7 +3856,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="str">
-        <f>VLOOKUP(E50,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E50,Courses!E$1:F$21,2,FALSE)</f>
         <v>Algorithms for the Real World</v>
       </c>
       <c r="G50" t="s">
@@ -3911,7 +3917,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="str">
-        <f>VLOOKUP(E51,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E51,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G51" t="s">
@@ -3972,7 +3978,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="str">
-        <f>VLOOKUP(E52,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E52,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G52" t="s">
@@ -4033,7 +4039,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="str">
-        <f>VLOOKUP(E53,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E53,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G53" t="s">
@@ -4094,7 +4100,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="str">
-        <f>VLOOKUP(E54,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E54,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G54" t="s">
@@ -4155,7 +4161,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="str">
-        <f>VLOOKUP(E55,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E55,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G55" t="s">
@@ -4216,7 +4222,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="str">
-        <f>VLOOKUP(E56,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E56,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G56" t="s">
@@ -4277,7 +4283,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="str">
-        <f>VLOOKUP(E57,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E57,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G57" t="s">
@@ -4338,7 +4344,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="str">
-        <f>VLOOKUP(E58,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E58,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G58" t="s">
@@ -4399,7 +4405,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="str">
-        <f>VLOOKUP(E59,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E59,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G59" t="s">
@@ -4460,7 +4466,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="str">
-        <f>VLOOKUP(E60,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E60,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G60" t="s">
@@ -4521,7 +4527,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="str">
-        <f>VLOOKUP(E61,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E61,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G61" t="s">
@@ -4582,7 +4588,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="str">
-        <f>VLOOKUP(E62,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E62,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G62" t="s">
@@ -4643,7 +4649,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="str">
-        <f>VLOOKUP(E63,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E63,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G63" t="s">
@@ -4704,7 +4710,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="str">
-        <f>VLOOKUP(E64,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E64,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G64" t="s">
@@ -4765,7 +4771,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="str">
-        <f>VLOOKUP(E65,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E65,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G65" t="s">
@@ -4826,7 +4832,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="str">
-        <f>VLOOKUP(E66,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E66,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G66" t="s">
@@ -4887,7 +4893,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="str">
-        <f>VLOOKUP(E67,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E67,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G67" t="s">
@@ -4948,7 +4954,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="str">
-        <f>VLOOKUP(E68,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E68,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G68" t="s">
@@ -5009,7 +5015,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="str">
-        <f>VLOOKUP(E69,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E69,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G69" t="s">
@@ -5070,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="str">
-        <f>VLOOKUP(E70,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E70,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G70" t="s">
@@ -5131,7 +5137,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="str">
-        <f>VLOOKUP(E71,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E71,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G71" t="s">
@@ -5192,7 +5198,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="str">
-        <f>VLOOKUP(E72,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E72,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G72" t="s">
@@ -5253,7 +5259,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="str">
-        <f>VLOOKUP(E73,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E73,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G73" t="s">
@@ -5314,7 +5320,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="str">
-        <f>VLOOKUP(E74,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E74,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G74" t="s">
@@ -5375,7 +5381,7 @@
         <v>45</v>
       </c>
       <c r="F75" t="str">
-        <f>VLOOKUP(E75,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E75,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G75" t="s">
@@ -5436,7 +5442,7 @@
         <v>45</v>
       </c>
       <c r="F76" t="str">
-        <f>VLOOKUP(E76,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E76,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G76" t="s">
@@ -5497,7 +5503,7 @@
         <v>45</v>
       </c>
       <c r="F77" t="str">
-        <f>VLOOKUP(E77,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E77,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G77" t="s">
@@ -5558,7 +5564,7 @@
         <v>45</v>
       </c>
       <c r="F78" t="str">
-        <f>VLOOKUP(E78,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E78,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G78" t="s">
@@ -5619,7 +5625,7 @@
         <v>45</v>
       </c>
       <c r="F79" t="str">
-        <f>VLOOKUP(E79,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E79,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G79" t="s">
@@ -5680,7 +5686,7 @@
         <v>45</v>
       </c>
       <c r="F80" t="str">
-        <f>VLOOKUP(E80,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E80,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G80" t="s">
@@ -5741,7 +5747,7 @@
         <v>45</v>
       </c>
       <c r="F81" t="str">
-        <f>VLOOKUP(E81,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E81,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G81" t="s">
@@ -5802,7 +5808,7 @@
         <v>45</v>
       </c>
       <c r="F82" t="str">
-        <f>VLOOKUP(E82,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E82,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G82" t="s">
@@ -5863,7 +5869,7 @@
         <v>46</v>
       </c>
       <c r="F83" t="str">
-        <f>VLOOKUP(E83,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E83,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G83" t="s">
@@ -5924,7 +5930,7 @@
         <v>46</v>
       </c>
       <c r="F84" t="str">
-        <f>VLOOKUP(E84,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E84,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G84" t="s">
@@ -5985,7 +5991,7 @@
         <v>46</v>
       </c>
       <c r="F85" t="str">
-        <f>VLOOKUP(E85,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E85,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G85" t="s">
@@ -6046,7 +6052,7 @@
         <v>46</v>
       </c>
       <c r="F86" t="str">
-        <f>VLOOKUP(E86,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E86,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G86" t="s">
@@ -6107,7 +6113,7 @@
         <v>46</v>
       </c>
       <c r="F87" t="str">
-        <f>VLOOKUP(E87,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E87,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G87" t="s">
@@ -6168,7 +6174,7 @@
         <v>46</v>
       </c>
       <c r="F88" t="str">
-        <f>VLOOKUP(E88,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E88,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G88" t="s">
@@ -6229,7 +6235,7 @@
         <v>46</v>
       </c>
       <c r="F89" t="str">
-        <f>VLOOKUP(E89,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E89,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G89" t="s">
@@ -6290,7 +6296,7 @@
         <v>46</v>
       </c>
       <c r="F90" t="str">
-        <f>VLOOKUP(E90,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E90,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G90" t="s">
@@ -6351,7 +6357,7 @@
         <v>46</v>
       </c>
       <c r="F91" t="str">
-        <f>VLOOKUP(E91,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E91,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G91" t="s">
@@ -6412,7 +6418,7 @@
         <v>46</v>
       </c>
       <c r="F92" t="str">
-        <f>VLOOKUP(E92,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E92,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G92" t="s">
@@ -6473,7 +6479,7 @@
         <v>46</v>
       </c>
       <c r="F93" t="str">
-        <f>VLOOKUP(E93,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E93,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G93" t="s">
@@ -6534,7 +6540,7 @@
         <v>46</v>
       </c>
       <c r="F94" t="str">
-        <f>VLOOKUP(E94,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E94,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G94" t="s">
@@ -6595,7 +6601,7 @@
         <v>46</v>
       </c>
       <c r="F95" t="str">
-        <f>VLOOKUP(E95,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E95,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G95" t="s">
@@ -6656,7 +6662,7 @@
         <v>46</v>
       </c>
       <c r="F96" t="str">
-        <f>VLOOKUP(E96,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E96,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G96" t="s">
@@ -6717,7 +6723,7 @@
         <v>46</v>
       </c>
       <c r="F97" t="str">
-        <f>VLOOKUP(E97,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E97,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G97" t="s">
@@ -6778,7 +6784,7 @@
         <v>46</v>
       </c>
       <c r="F98" t="str">
-        <f>VLOOKUP(E98,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E98,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G98" t="s">
@@ -6839,7 +6845,7 @@
         <v>46</v>
       </c>
       <c r="F99" t="str">
-        <f>VLOOKUP(E99,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E99,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G99" t="s">
@@ -6900,7 +6906,7 @@
         <v>46</v>
       </c>
       <c r="F100" t="str">
-        <f>VLOOKUP(E100,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E100,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G100" t="s">
@@ -6961,7 +6967,7 @@
         <v>46</v>
       </c>
       <c r="F101" t="str">
-        <f>VLOOKUP(E101,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E101,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G101" t="s">
@@ -7022,7 +7028,7 @@
         <v>46</v>
       </c>
       <c r="F102" t="str">
-        <f>VLOOKUP(E102,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E102,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G102" t="s">
@@ -7083,7 +7089,7 @@
         <v>46</v>
       </c>
       <c r="F103" t="str">
-        <f>VLOOKUP(E103,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E103,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G103" t="s">
@@ -7144,7 +7150,7 @@
         <v>46</v>
       </c>
       <c r="F104" t="str">
-        <f>VLOOKUP(E104,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E104,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G104" t="s">
@@ -7205,7 +7211,7 @@
         <v>46</v>
       </c>
       <c r="F105" t="str">
-        <f>VLOOKUP(E105,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E105,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G105" t="s">
@@ -7266,7 +7272,7 @@
         <v>46</v>
       </c>
       <c r="F106" t="str">
-        <f>VLOOKUP(E106,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E106,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G106" t="s">
@@ -7327,7 +7333,7 @@
         <v>46</v>
       </c>
       <c r="F107" t="str">
-        <f>VLOOKUP(E107,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E107,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G107" t="s">
@@ -7388,7 +7394,7 @@
         <v>46</v>
       </c>
       <c r="F108" t="str">
-        <f>VLOOKUP(E108,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E108,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G108" t="s">
@@ -7449,7 +7455,7 @@
         <v>46</v>
       </c>
       <c r="F109" t="str">
-        <f>VLOOKUP(E109,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E109,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G109" t="s">
@@ -7510,7 +7516,7 @@
         <v>46</v>
       </c>
       <c r="F110" t="str">
-        <f>VLOOKUP(E110,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E110,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G110" t="s">
@@ -7571,7 +7577,7 @@
         <v>46</v>
       </c>
       <c r="F111" t="str">
-        <f>VLOOKUP(E111,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E111,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G111" t="s">
@@ -7632,7 +7638,7 @@
         <v>46</v>
       </c>
       <c r="F112" t="str">
-        <f>VLOOKUP(E112,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E112,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G112" t="s">
@@ -7693,7 +7699,7 @@
         <v>46</v>
       </c>
       <c r="F113" t="str">
-        <f>VLOOKUP(E113,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E113,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G113" t="s">
@@ -7754,7 +7760,7 @@
         <v>46</v>
       </c>
       <c r="F114" t="str">
-        <f>VLOOKUP(E114,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E114,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G114" t="s">
@@ -7815,7 +7821,7 @@
         <v>46</v>
       </c>
       <c r="F115" t="str">
-        <f>VLOOKUP(E115,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E115,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G115" t="s">
@@ -7876,7 +7882,7 @@
         <v>46</v>
       </c>
       <c r="F116" t="str">
-        <f>VLOOKUP(E116,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E116,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G116" t="s">
@@ -7937,7 +7943,7 @@
         <v>46</v>
       </c>
       <c r="F117" t="str">
-        <f>VLOOKUP(E117,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E117,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G117" t="s">
@@ -7998,7 +8004,7 @@
         <v>46</v>
       </c>
       <c r="F118" t="str">
-        <f>VLOOKUP(E118,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E118,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G118" t="s">
@@ -8059,7 +8065,7 @@
         <v>46</v>
       </c>
       <c r="F119" t="str">
-        <f>VLOOKUP(E119,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E119,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G119" t="s">
@@ -8120,7 +8126,7 @@
         <v>46</v>
       </c>
       <c r="F120" t="str">
-        <f>VLOOKUP(E120,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E120,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G120" t="s">
@@ -8181,7 +8187,7 @@
         <v>46</v>
       </c>
       <c r="F121" t="str">
-        <f>VLOOKUP(E121,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E121,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G121" t="s">
@@ -8242,7 +8248,7 @@
         <v>46</v>
       </c>
       <c r="F122" t="str">
-        <f>VLOOKUP(E122,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E122,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G122" t="s">
@@ -8303,7 +8309,7 @@
         <v>46</v>
       </c>
       <c r="F123" t="str">
-        <f>VLOOKUP(E123,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E123,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G123" t="s">
@@ -8364,7 +8370,7 @@
         <v>46</v>
       </c>
       <c r="F124" t="str">
-        <f>VLOOKUP(E124,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E124,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G124" t="s">
@@ -8425,7 +8431,7 @@
         <v>46</v>
       </c>
       <c r="F125" t="str">
-        <f>VLOOKUP(E125,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E125,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G125" t="s">
@@ -8486,7 +8492,7 @@
         <v>46</v>
       </c>
       <c r="F126" t="str">
-        <f>VLOOKUP(E126,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E126,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G126" t="s">
@@ -8547,7 +8553,7 @@
         <v>46</v>
       </c>
       <c r="F127" t="str">
-        <f>VLOOKUP(E127,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E127,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G127" t="s">
@@ -8608,7 +8614,7 @@
         <v>46</v>
       </c>
       <c r="F128" t="str">
-        <f>VLOOKUP(E128,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E128,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G128" t="s">
@@ -8669,7 +8675,7 @@
         <v>46</v>
       </c>
       <c r="F129" t="str">
-        <f>VLOOKUP(E129,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E129,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G129" t="s">
@@ -8730,7 +8736,7 @@
         <v>46</v>
       </c>
       <c r="F130" t="str">
-        <f>VLOOKUP(E130,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E130,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G130" t="s">
@@ -8791,7 +8797,7 @@
         <v>53</v>
       </c>
       <c r="F131" t="str">
-        <f>VLOOKUP(E131,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E131,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G131" s="2" t="s">
@@ -8852,7 +8858,7 @@
         <v>53</v>
       </c>
       <c r="F132" t="str">
-        <f>VLOOKUP(E132,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E132,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G132" s="2" t="s">
@@ -8913,7 +8919,7 @@
         <v>53</v>
       </c>
       <c r="F133" t="str">
-        <f>VLOOKUP(E133,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E133,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G133" s="2" t="s">
@@ -8974,7 +8980,7 @@
         <v>53</v>
       </c>
       <c r="F134" t="str">
-        <f>VLOOKUP(E134,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E134,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G134" s="2" t="s">
@@ -9035,7 +9041,7 @@
         <v>53</v>
       </c>
       <c r="F135" t="str">
-        <f>VLOOKUP(E135,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E135,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G135" s="2" t="s">
@@ -9096,7 +9102,7 @@
         <v>53</v>
       </c>
       <c r="F136" t="str">
-        <f>VLOOKUP(E136,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E136,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G136" s="2" t="s">
@@ -9157,7 +9163,7 @@
         <v>53</v>
       </c>
       <c r="F137" t="str">
-        <f>VLOOKUP(E137,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E137,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G137" s="2" t="s">
@@ -9218,7 +9224,7 @@
         <v>53</v>
       </c>
       <c r="F138" t="str">
-        <f>VLOOKUP(E138,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E138,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G138" s="2" t="s">
@@ -9279,7 +9285,7 @@
         <v>53</v>
       </c>
       <c r="F139" t="str">
-        <f>VLOOKUP(E139,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E139,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G139" s="2" t="s">
@@ -9340,7 +9346,7 @@
         <v>53</v>
       </c>
       <c r="F140" t="str">
-        <f>VLOOKUP(E140,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E140,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -9401,7 +9407,7 @@
         <v>53</v>
       </c>
       <c r="F141" t="str">
-        <f>VLOOKUP(E141,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E141,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -9462,7 +9468,7 @@
         <v>53</v>
       </c>
       <c r="F142" t="str">
-        <f>VLOOKUP(E142,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E142,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G142" s="2" t="s">
@@ -9523,7 +9529,7 @@
         <v>53</v>
       </c>
       <c r="F143" t="str">
-        <f>VLOOKUP(E143,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E143,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G143" s="2" t="s">
@@ -9584,7 +9590,7 @@
         <v>53</v>
       </c>
       <c r="F144" t="str">
-        <f>VLOOKUP(E144,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E144,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G144" s="2" t="s">
@@ -9645,7 +9651,7 @@
         <v>53</v>
       </c>
       <c r="F145" t="str">
-        <f>VLOOKUP(E145,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E145,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G145" s="2" t="s">
@@ -9706,7 +9712,7 @@
         <v>53</v>
       </c>
       <c r="F146" t="str">
-        <f>VLOOKUP(E146,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E146,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G146" s="2" t="s">
@@ -9767,7 +9773,7 @@
         <v>53</v>
       </c>
       <c r="F147" t="str">
-        <f>VLOOKUP(E147,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E147,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G147" s="2" t="s">
@@ -9828,7 +9834,7 @@
         <v>53</v>
       </c>
       <c r="F148" t="str">
-        <f>VLOOKUP(E148,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E148,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G148" s="2" t="s">
@@ -9889,7 +9895,7 @@
         <v>53</v>
       </c>
       <c r="F149" t="str">
-        <f>VLOOKUP(E149,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E149,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G149" s="2" t="s">
@@ -9950,7 +9956,7 @@
         <v>53</v>
       </c>
       <c r="F150" t="str">
-        <f>VLOOKUP(E150,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E150,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G150" s="2" t="s">
@@ -10011,7 +10017,7 @@
         <v>38</v>
       </c>
       <c r="F151" t="str">
-        <f>VLOOKUP(E151,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E151,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G151" s="2" t="s">
@@ -10072,7 +10078,7 @@
         <v>38</v>
       </c>
       <c r="F152" t="str">
-        <f>VLOOKUP(E152,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E152,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G152" s="2" t="s">
@@ -10133,7 +10139,7 @@
         <v>38</v>
       </c>
       <c r="F153" t="str">
-        <f>VLOOKUP(E153,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E153,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G153" s="2" t="s">
@@ -10194,7 +10200,7 @@
         <v>38</v>
       </c>
       <c r="F154" t="str">
-        <f>VLOOKUP(E154,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E154,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G154" s="2" t="s">
@@ -10255,7 +10261,7 @@
         <v>38</v>
       </c>
       <c r="F155" t="str">
-        <f>VLOOKUP(E155,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E155,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G155" s="2" t="s">
@@ -10316,7 +10322,7 @@
         <v>38</v>
       </c>
       <c r="F156" t="str">
-        <f>VLOOKUP(E156,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E156,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G156" s="2" t="s">
@@ -10377,7 +10383,7 @@
         <v>38</v>
       </c>
       <c r="F157" t="str">
-        <f>VLOOKUP(E157,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E157,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G157" s="2" t="s">
@@ -10438,7 +10444,7 @@
         <v>38</v>
       </c>
       <c r="F158" t="str">
-        <f>VLOOKUP(E158,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E158,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G158" s="2" t="s">
@@ -10499,7 +10505,7 @@
         <v>38</v>
       </c>
       <c r="F159" t="str">
-        <f>VLOOKUP(E159,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E159,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G159" s="2" t="s">
@@ -10560,7 +10566,7 @@
         <v>38</v>
       </c>
       <c r="F160" t="str">
-        <f>VLOOKUP(E160,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E160,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G160" s="2" t="s">
@@ -10621,7 +10627,7 @@
         <v>38</v>
       </c>
       <c r="F161" t="str">
-        <f>VLOOKUP(E161,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E161,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G161" s="2" t="s">
@@ -10682,7 +10688,7 @@
         <v>38</v>
       </c>
       <c r="F162" t="str">
-        <f>VLOOKUP(E162,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E162,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G162" s="2" t="s">
@@ -10743,7 +10749,7 @@
         <v>38</v>
       </c>
       <c r="F163" t="str">
-        <f>VLOOKUP(E163,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E163,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G163" s="2" t="s">
@@ -10804,7 +10810,7 @@
         <v>38</v>
       </c>
       <c r="F164" t="str">
-        <f>VLOOKUP(E164,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E164,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G164" s="2" t="s">
@@ -10865,7 +10871,7 @@
         <v>38</v>
       </c>
       <c r="F165" t="str">
-        <f>VLOOKUP(E165,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E165,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G165" s="2" t="s">
@@ -10926,7 +10932,7 @@
         <v>38</v>
       </c>
       <c r="F166" t="str">
-        <f>VLOOKUP(E166,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E166,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G166" s="2" t="s">
@@ -10987,7 +10993,7 @@
         <v>38</v>
       </c>
       <c r="F167" t="str">
-        <f>VLOOKUP(E167,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E167,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G167" s="2" t="s">
@@ -11048,7 +11054,7 @@
         <v>38</v>
       </c>
       <c r="F168" t="str">
-        <f>VLOOKUP(E168,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E168,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G168" s="2" t="s">
@@ -11109,7 +11115,7 @@
         <v>38</v>
       </c>
       <c r="F169" t="str">
-        <f>VLOOKUP(E169,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E169,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G169" s="2" t="s">
@@ -11170,7 +11176,7 @@
         <v>38</v>
       </c>
       <c r="F170" t="str">
-        <f>VLOOKUP(E170,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E170,Courses!E$1:F$21,2,FALSE)</f>
         <v>Relativity &amp; Quantum Physics</v>
       </c>
       <c r="G170" s="2" t="s">
@@ -11231,7 +11237,7 @@
         <v>16</v>
       </c>
       <c r="F171" t="str">
-        <f>VLOOKUP(E171,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E171,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G171" s="2" t="s">
@@ -11292,7 +11298,7 @@
         <v>16</v>
       </c>
       <c r="F172" t="str">
-        <f>VLOOKUP(E172,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E172,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G172" s="2" t="s">
@@ -11353,7 +11359,7 @@
         <v>16</v>
       </c>
       <c r="F173" t="str">
-        <f>VLOOKUP(E173,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E173,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G173" s="2" t="s">
@@ -11414,7 +11420,7 @@
         <v>16</v>
       </c>
       <c r="F174" t="str">
-        <f>VLOOKUP(E174,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E174,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G174" s="2" t="s">
@@ -11475,7 +11481,7 @@
         <v>16</v>
       </c>
       <c r="F175" t="str">
-        <f>VLOOKUP(E175,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E175,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G175" s="2" t="s">
@@ -11536,7 +11542,7 @@
         <v>16</v>
       </c>
       <c r="F176" t="str">
-        <f>VLOOKUP(E176,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E176,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G176" s="2" t="s">
@@ -11597,7 +11603,7 @@
         <v>16</v>
       </c>
       <c r="F177" t="str">
-        <f>VLOOKUP(E177,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E177,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G177" s="2" t="s">
@@ -11658,7 +11664,7 @@
         <v>16</v>
       </c>
       <c r="F178" t="str">
-        <f>VLOOKUP(E178,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E178,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G178" s="2" t="s">
@@ -11719,7 +11725,7 @@
         <v>16</v>
       </c>
       <c r="F179" t="str">
-        <f>VLOOKUP(E179,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E179,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G179" s="2" t="s">
@@ -11780,7 +11786,7 @@
         <v>16</v>
       </c>
       <c r="F180" t="str">
-        <f>VLOOKUP(E180,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E180,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G180" s="2" t="s">
@@ -11841,7 +11847,7 @@
         <v>16</v>
       </c>
       <c r="F181" t="str">
-        <f>VLOOKUP(E181,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E181,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G181" s="2" t="s">
@@ -11902,7 +11908,7 @@
         <v>16</v>
       </c>
       <c r="F182" t="str">
-        <f>VLOOKUP(E182,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E182,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G182" s="2" t="s">
@@ -11963,7 +11969,7 @@
         <v>16</v>
       </c>
       <c r="F183" t="str">
-        <f>VLOOKUP(E183,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E183,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G183" s="2" t="s">
@@ -12024,7 +12030,7 @@
         <v>16</v>
       </c>
       <c r="F184" t="str">
-        <f>VLOOKUP(E184,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E184,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G184" s="2" t="s">
@@ -12085,7 +12091,7 @@
         <v>16</v>
       </c>
       <c r="F185" t="str">
-        <f>VLOOKUP(E185,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E185,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G185" s="2" t="s">
@@ -12146,7 +12152,7 @@
         <v>16</v>
       </c>
       <c r="F186" t="str">
-        <f>VLOOKUP(E186,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E186,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G186" s="2" t="s">
@@ -12207,7 +12213,7 @@
         <v>16</v>
       </c>
       <c r="F187" t="str">
-        <f>VLOOKUP(E187,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E187,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G187" s="2" t="s">
@@ -12268,7 +12274,7 @@
         <v>16</v>
       </c>
       <c r="F188" t="str">
-        <f>VLOOKUP(E188,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E188,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G188" s="2" t="s">
@@ -12329,7 +12335,7 @@
         <v>16</v>
       </c>
       <c r="F189" t="str">
-        <f>VLOOKUP(E189,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E189,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G189" s="2" t="s">
@@ -12390,7 +12396,7 @@
         <v>16</v>
       </c>
       <c r="F190" t="str">
-        <f>VLOOKUP(E190,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E190,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G190" s="2" t="s">
@@ -12451,7 +12457,7 @@
         <v>44</v>
       </c>
       <c r="F191" t="str">
-        <f>VLOOKUP(E191,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E191,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G191" t="s">
@@ -12512,7 +12518,7 @@
         <v>44</v>
       </c>
       <c r="F192" t="str">
-        <f>VLOOKUP(E192,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E192,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G192" t="s">
@@ -12573,7 +12579,7 @@
         <v>44</v>
       </c>
       <c r="F193" t="str">
-        <f>VLOOKUP(E193,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E193,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G193" t="s">
@@ -12634,7 +12640,7 @@
         <v>44</v>
       </c>
       <c r="F194" t="str">
-        <f>VLOOKUP(E194,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E194,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G194" t="s">
@@ -12695,7 +12701,7 @@
         <v>44</v>
       </c>
       <c r="F195" t="str">
-        <f>VLOOKUP(E195,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E195,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G195" t="s">
@@ -12756,7 +12762,7 @@
         <v>44</v>
       </c>
       <c r="F196" t="str">
-        <f>VLOOKUP(E196,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E196,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G196" t="s">
@@ -12817,7 +12823,7 @@
         <v>44</v>
       </c>
       <c r="F197" t="str">
-        <f>VLOOKUP(E197,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E197,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G197" t="s">
@@ -12878,7 +12884,7 @@
         <v>44</v>
       </c>
       <c r="F198" t="str">
-        <f>VLOOKUP(E198,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E198,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G198" t="s">
@@ -12939,7 +12945,7 @@
         <v>44</v>
       </c>
       <c r="F199" t="str">
-        <f>VLOOKUP(E199,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E199,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G199" t="s">
@@ -13000,7 +13006,7 @@
         <v>44</v>
       </c>
       <c r="F200" t="str">
-        <f>VLOOKUP(E200,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E200,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G200" t="s">
@@ -13061,7 +13067,7 @@
         <v>44</v>
       </c>
       <c r="F201" t="str">
-        <f>VLOOKUP(E201,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E201,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G201" t="s">
@@ -13122,7 +13128,7 @@
         <v>44</v>
       </c>
       <c r="F202" t="str">
-        <f>VLOOKUP(E202,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E202,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G202" t="s">
@@ -13183,7 +13189,7 @@
         <v>44</v>
       </c>
       <c r="F203" t="str">
-        <f>VLOOKUP(E203,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E203,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G203" t="s">
@@ -13244,7 +13250,7 @@
         <v>44</v>
       </c>
       <c r="F204" t="str">
-        <f>VLOOKUP(E204,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E204,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G204" t="s">
@@ -13305,7 +13311,7 @@
         <v>44</v>
       </c>
       <c r="F205" t="str">
-        <f>VLOOKUP(E205,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E205,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G205" t="s">
@@ -13366,7 +13372,7 @@
         <v>44</v>
       </c>
       <c r="F206" t="str">
-        <f>VLOOKUP(E206,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E206,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G206" t="s">
@@ -13427,7 +13433,7 @@
         <v>44</v>
       </c>
       <c r="F207" t="str">
-        <f>VLOOKUP(E207,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E207,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G207" t="s">
@@ -13488,7 +13494,7 @@
         <v>44</v>
       </c>
       <c r="F208" t="str">
-        <f>VLOOKUP(E208,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E208,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G208" t="s">
@@ -13549,7 +13555,7 @@
         <v>44</v>
       </c>
       <c r="F209" t="str">
-        <f>VLOOKUP(E209,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E209,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G209" t="s">
@@ -13610,7 +13616,7 @@
         <v>44</v>
       </c>
       <c r="F210" t="str">
-        <f>VLOOKUP(E210,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E210,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G210" t="s">
@@ -13671,7 +13677,7 @@
         <v>44</v>
       </c>
       <c r="F211" t="str">
-        <f>VLOOKUP(E211,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E211,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G211" t="s">
@@ -13732,7 +13738,7 @@
         <v>44</v>
       </c>
       <c r="F212" t="str">
-        <f>VLOOKUP(E212,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E212,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G212" t="s">
@@ -13793,7 +13799,7 @@
         <v>44</v>
       </c>
       <c r="F213" t="str">
-        <f>VLOOKUP(E213,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E213,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G213" t="s">
@@ -13854,7 +13860,7 @@
         <v>44</v>
       </c>
       <c r="F214" t="str">
-        <f>VLOOKUP(E214,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E214,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G214" t="s">
@@ -13915,7 +13921,7 @@
         <v>44</v>
       </c>
       <c r="F215" t="str">
-        <f>VLOOKUP(E215,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E215,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G215" t="s">
@@ -13976,7 +13982,7 @@
         <v>44</v>
       </c>
       <c r="F216" t="str">
-        <f>VLOOKUP(E216,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E216,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G216" t="s">
@@ -14037,7 +14043,7 @@
         <v>44</v>
       </c>
       <c r="F217" t="str">
-        <f>VLOOKUP(E217,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E217,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G217" t="s">
@@ -14098,7 +14104,7 @@
         <v>44</v>
       </c>
       <c r="F218" t="str">
-        <f>VLOOKUP(E218,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E218,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G218" t="s">
@@ -14159,7 +14165,7 @@
         <v>44</v>
       </c>
       <c r="F219" t="str">
-        <f>VLOOKUP(E219,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E219,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G219" t="s">
@@ -14220,7 +14226,7 @@
         <v>44</v>
       </c>
       <c r="F220" t="str">
-        <f>VLOOKUP(E220,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E220,Courses!E$1:F$21,2,FALSE)</f>
         <v>Mechanics</v>
       </c>
       <c r="G220" t="s">
@@ -14281,7 +14287,7 @@
         <v>46</v>
       </c>
       <c r="F221" t="str">
-        <f>VLOOKUP(E221,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E221,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G221" t="s">
@@ -14342,7 +14348,7 @@
         <v>46</v>
       </c>
       <c r="F222" t="str">
-        <f>VLOOKUP(E222,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E222,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G222" t="s">
@@ -14403,7 +14409,7 @@
         <v>46</v>
       </c>
       <c r="F223" t="str">
-        <f>VLOOKUP(E223,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E223,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G223" t="s">
@@ -14464,7 +14470,7 @@
         <v>46</v>
       </c>
       <c r="F224" t="str">
-        <f>VLOOKUP(E224,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E224,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G224" t="s">
@@ -14525,7 +14531,7 @@
         <v>46</v>
       </c>
       <c r="F225" t="str">
-        <f>VLOOKUP(E225,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E225,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G225" t="s">
@@ -14586,7 +14592,7 @@
         <v>46</v>
       </c>
       <c r="F226" t="str">
-        <f>VLOOKUP(E226,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E226,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G226" t="s">
@@ -14647,7 +14653,7 @@
         <v>46</v>
       </c>
       <c r="F227" t="str">
-        <f>VLOOKUP(E227,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E227,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G227" t="s">
@@ -14708,7 +14714,7 @@
         <v>46</v>
       </c>
       <c r="F228" t="str">
-        <f>VLOOKUP(E228,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E228,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G228" t="s">
@@ -14769,7 +14775,7 @@
         <v>46</v>
       </c>
       <c r="F229" t="str">
-        <f>VLOOKUP(E229,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E229,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G229" t="s">
@@ -14830,7 +14836,7 @@
         <v>46</v>
       </c>
       <c r="F230" t="str">
-        <f>VLOOKUP(E230,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E230,Courses!E$1:F$21,2,FALSE)</f>
         <v>Physics A</v>
       </c>
       <c r="G230" t="s">
@@ -14891,7 +14897,7 @@
         <v>45</v>
       </c>
       <c r="F231" t="str">
-        <f>VLOOKUP(E231,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E231,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G231" t="s">
@@ -14952,7 +14958,7 @@
         <v>45</v>
       </c>
       <c r="F232" t="str">
-        <f>VLOOKUP(E232,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E232,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G232" t="s">
@@ -15013,7 +15019,7 @@
         <v>45</v>
       </c>
       <c r="F233" t="str">
-        <f>VLOOKUP(E233,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E233,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G233" t="s">
@@ -15074,7 +15080,7 @@
         <v>45</v>
       </c>
       <c r="F234" t="str">
-        <f>VLOOKUP(E234,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E234,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G234" t="s">
@@ -15135,7 +15141,7 @@
         <v>45</v>
       </c>
       <c r="F235" t="str">
-        <f>VLOOKUP(E235,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E235,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G235" t="s">
@@ -15196,7 +15202,7 @@
         <v>45</v>
       </c>
       <c r="F236" t="str">
-        <f>VLOOKUP(E236,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E236,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G236" t="s">
@@ -15257,7 +15263,7 @@
         <v>45</v>
       </c>
       <c r="F237" t="str">
-        <f>VLOOKUP(E237,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E237,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G237" t="s">
@@ -15318,7 +15324,7 @@
         <v>45</v>
       </c>
       <c r="F238" t="str">
-        <f>VLOOKUP(E238,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E238,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G238" t="s">
@@ -15379,7 +15385,7 @@
         <v>45</v>
       </c>
       <c r="F239" t="str">
-        <f>VLOOKUP(E239,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E239,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G239" t="s">
@@ -15440,7 +15446,7 @@
         <v>45</v>
       </c>
       <c r="F240" t="str">
-        <f>VLOOKUP(E240,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E240,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G240" t="s">
@@ -15501,7 +15507,7 @@
         <v>45</v>
       </c>
       <c r="F241" t="str">
-        <f>VLOOKUP(E241,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E241,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G241" t="s">
@@ -15562,7 +15568,7 @@
         <v>45</v>
       </c>
       <c r="F242" t="str">
-        <f>VLOOKUP(E242,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E242,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G242" t="s">
@@ -15623,7 +15629,7 @@
         <v>45</v>
       </c>
       <c r="F243" t="str">
-        <f>VLOOKUP(E243,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E243,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G243" t="s">
@@ -15684,7 +15690,7 @@
         <v>45</v>
       </c>
       <c r="F244" t="str">
-        <f>VLOOKUP(E244,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E244,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G244" t="s">
@@ -15745,7 +15751,7 @@
         <v>45</v>
       </c>
       <c r="F245" t="str">
-        <f>VLOOKUP(E245,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E245,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G245" t="s">
@@ -15806,7 +15812,7 @@
         <v>45</v>
       </c>
       <c r="F246" t="str">
-        <f>VLOOKUP(E246,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E246,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G246" t="s">
@@ -15867,7 +15873,7 @@
         <v>45</v>
       </c>
       <c r="F247" t="str">
-        <f>VLOOKUP(E247,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E247,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G247" t="s">
@@ -15928,7 +15934,7 @@
         <v>45</v>
       </c>
       <c r="F248" t="str">
-        <f>VLOOKUP(E248,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E248,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G248" t="s">
@@ -15989,7 +15995,7 @@
         <v>45</v>
       </c>
       <c r="F249" t="str">
-        <f>VLOOKUP(E249,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E249,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G249" t="s">
@@ -16050,7 +16056,7 @@
         <v>45</v>
       </c>
       <c r="F250" t="str">
-        <f>VLOOKUP(E250,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E250,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G250" t="s">
@@ -16111,7 +16117,7 @@
         <v>45</v>
       </c>
       <c r="F251" t="str">
-        <f>VLOOKUP(E251,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E251,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G251" t="s">
@@ -16172,7 +16178,7 @@
         <v>45</v>
       </c>
       <c r="F252" t="str">
-        <f>VLOOKUP(E252,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E252,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G252" t="s">
@@ -16233,7 +16239,7 @@
         <v>45</v>
       </c>
       <c r="F253" t="str">
-        <f>VLOOKUP(E253,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E253,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G253" t="s">
@@ -16294,7 +16300,7 @@
         <v>45</v>
       </c>
       <c r="F254" t="str">
-        <f>VLOOKUP(E254,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E254,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G254" t="s">
@@ -16355,7 +16361,7 @@
         <v>45</v>
       </c>
       <c r="F255" t="str">
-        <f>VLOOKUP(E255,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E255,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G255" t="s">
@@ -16416,7 +16422,7 @@
         <v>45</v>
       </c>
       <c r="F256" t="str">
-        <f>VLOOKUP(E256,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E256,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G256" t="s">
@@ -16477,7 +16483,7 @@
         <v>45</v>
       </c>
       <c r="F257" t="str">
-        <f>VLOOKUP(E257,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E257,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G257" t="s">
@@ -16538,7 +16544,7 @@
         <v>45</v>
       </c>
       <c r="F258" t="str">
-        <f>VLOOKUP(E258,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E258,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G258" t="s">
@@ -16599,7 +16605,7 @@
         <v>45</v>
       </c>
       <c r="F259" t="str">
-        <f>VLOOKUP(E259,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E259,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G259" t="s">
@@ -16660,7 +16666,7 @@
         <v>45</v>
       </c>
       <c r="F260" t="str">
-        <f>VLOOKUP(E260,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E260,Courses!E$1:F$21,2,FALSE)</f>
         <v>Complex Methods for the Sciences</v>
       </c>
       <c r="G260" t="s">
@@ -16721,7 +16727,7 @@
         <v>16</v>
       </c>
       <c r="F261" t="str">
-        <f>VLOOKUP(E261,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E261,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G261" t="s">
@@ -16782,7 +16788,7 @@
         <v>16</v>
       </c>
       <c r="F262" t="str">
-        <f>VLOOKUP(E262,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E262,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G262" t="s">
@@ -16843,7 +16849,7 @@
         <v>16</v>
       </c>
       <c r="F263" t="str">
-        <f>VLOOKUP(E263,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E263,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G263" t="s">
@@ -16904,7 +16910,7 @@
         <v>16</v>
       </c>
       <c r="F264" t="str">
-        <f>VLOOKUP(E264,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E264,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G264" t="s">
@@ -16965,7 +16971,7 @@
         <v>16</v>
       </c>
       <c r="F265" t="str">
-        <f>VLOOKUP(E265,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E265,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G265" t="s">
@@ -17026,7 +17032,7 @@
         <v>16</v>
       </c>
       <c r="F266" t="str">
-        <f>VLOOKUP(E266,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E266,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G266" t="s">
@@ -17087,7 +17093,7 @@
         <v>16</v>
       </c>
       <c r="F267" t="str">
-        <f>VLOOKUP(E267,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E267,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G267" t="s">
@@ -17148,7 +17154,7 @@
         <v>16</v>
       </c>
       <c r="F268" t="str">
-        <f>VLOOKUP(E268,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E268,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G268" t="s">
@@ -17209,7 +17215,7 @@
         <v>16</v>
       </c>
       <c r="F269" t="str">
-        <f>VLOOKUP(E269,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E269,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G269" t="s">
@@ -17270,7 +17276,7 @@
         <v>16</v>
       </c>
       <c r="F270" t="str">
-        <f>VLOOKUP(E270,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E270,Courses!E$1:F$21,2,FALSE)</f>
         <v>Calculus for Physicist</v>
       </c>
       <c r="G270" t="s">
@@ -17331,7 +17337,7 @@
         <v>41</v>
       </c>
       <c r="F271" t="str">
-        <f>VLOOKUP(E271,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E271,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G271" t="s">
@@ -17392,7 +17398,7 @@
         <v>41</v>
       </c>
       <c r="F272" t="str">
-        <f>VLOOKUP(E272,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E272,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G272" t="s">
@@ -17453,7 +17459,7 @@
         <v>41</v>
       </c>
       <c r="F273" t="str">
-        <f>VLOOKUP(E273,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E273,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G273" t="s">
@@ -17514,7 +17520,7 @@
         <v>41</v>
       </c>
       <c r="F274" t="str">
-        <f>VLOOKUP(E274,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E274,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G274" t="s">
@@ -17575,7 +17581,7 @@
         <v>41</v>
       </c>
       <c r="F275" t="str">
-        <f>VLOOKUP(E275,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E275,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G275" t="s">
@@ -17636,7 +17642,7 @@
         <v>41</v>
       </c>
       <c r="F276" t="str">
-        <f>VLOOKUP(E276,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E276,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G276" t="s">
@@ -17697,7 +17703,7 @@
         <v>41</v>
       </c>
       <c r="F277" t="str">
-        <f>VLOOKUP(E277,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E277,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G277" t="s">
@@ -17758,7 +17764,7 @@
         <v>41</v>
       </c>
       <c r="F278" t="str">
-        <f>VLOOKUP(E278,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E278,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G278" t="s">
@@ -17819,7 +17825,7 @@
         <v>41</v>
       </c>
       <c r="F279" t="str">
-        <f>VLOOKUP(E279,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E279,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G279" t="s">
@@ -17880,7 +17886,7 @@
         <v>41</v>
       </c>
       <c r="F280" t="str">
-        <f>VLOOKUP(E280,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E280,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G280" t="s">
@@ -17941,7 +17947,7 @@
         <v>41</v>
       </c>
       <c r="F281" t="str">
-        <f>VLOOKUP(E281,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E281,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G281" t="s">
@@ -18002,7 +18008,7 @@
         <v>41</v>
       </c>
       <c r="F282" t="str">
-        <f>VLOOKUP(E282,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E282,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G282" t="s">
@@ -18063,7 +18069,7 @@
         <v>41</v>
       </c>
       <c r="F283" t="str">
-        <f>VLOOKUP(E283,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E283,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G283" t="s">
@@ -18124,7 +18130,7 @@
         <v>41</v>
       </c>
       <c r="F284" t="str">
-        <f>VLOOKUP(E284,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E284,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G284" t="s">
@@ -18185,7 +18191,7 @@
         <v>41</v>
       </c>
       <c r="F285" t="str">
-        <f>VLOOKUP(E285,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E285,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G285" t="s">
@@ -18246,7 +18252,7 @@
         <v>41</v>
       </c>
       <c r="F286" t="str">
-        <f>VLOOKUP(E286,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E286,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G286" t="s">
@@ -18307,7 +18313,7 @@
         <v>41</v>
       </c>
       <c r="F287" t="str">
-        <f>VLOOKUP(E287,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E287,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G287" t="s">
@@ -18368,7 +18374,7 @@
         <v>41</v>
       </c>
       <c r="F288" t="str">
-        <f>VLOOKUP(E288,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E288,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G288" t="s">
@@ -18429,7 +18435,7 @@
         <v>41</v>
       </c>
       <c r="F289" t="str">
-        <f>VLOOKUP(E289,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E289,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G289" t="s">
@@ -18490,7 +18496,7 @@
         <v>41</v>
       </c>
       <c r="F290" t="str">
-        <f>VLOOKUP(E290,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E290,Courses!E$1:F$21,2,FALSE)</f>
         <v>Electromagnetism</v>
       </c>
       <c r="G290" t="s">
@@ -18551,7 +18557,7 @@
         <v>54</v>
       </c>
       <c r="F291" t="str">
-        <f>VLOOKUP(E291,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E291,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G291" t="s">
@@ -18612,7 +18618,7 @@
         <v>54</v>
       </c>
       <c r="F292" t="str">
-        <f>VLOOKUP(E292,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E292,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G292" t="s">
@@ -18673,7 +18679,7 @@
         <v>54</v>
       </c>
       <c r="F293" t="str">
-        <f>VLOOKUP(E293,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E293,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G293" t="s">
@@ -18734,7 +18740,7 @@
         <v>54</v>
       </c>
       <c r="F294" t="str">
-        <f>VLOOKUP(E294,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E294,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G294" t="s">
@@ -18795,7 +18801,7 @@
         <v>54</v>
       </c>
       <c r="F295" t="str">
-        <f>VLOOKUP(E295,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E295,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G295" t="s">
@@ -18856,7 +18862,7 @@
         <v>54</v>
       </c>
       <c r="F296" t="str">
-        <f>VLOOKUP(E296,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E296,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G296" t="s">
@@ -18917,7 +18923,7 @@
         <v>54</v>
       </c>
       <c r="F297" t="str">
-        <f>VLOOKUP(E297,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E297,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G297" t="s">
@@ -18978,7 +18984,7 @@
         <v>54</v>
       </c>
       <c r="F298" t="str">
-        <f>VLOOKUP(E298,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E298,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G298" t="s">
@@ -19039,7 +19045,7 @@
         <v>54</v>
       </c>
       <c r="F299" t="str">
-        <f>VLOOKUP(E299,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E299,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G299" t="s">
@@ -19100,7 +19106,7 @@
         <v>54</v>
       </c>
       <c r="F300" t="str">
-        <f>VLOOKUP(E300,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E300,Courses!E$1:F$21,2,FALSE)</f>
         <v>Computational Physics</v>
       </c>
       <c r="G300" t="s">
@@ -19161,7 +19167,7 @@
         <v>23</v>
       </c>
       <c r="F301" t="str">
-        <f>VLOOKUP(E301,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E301,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G301" s="2" t="s">
@@ -19222,7 +19228,7 @@
         <v>23</v>
       </c>
       <c r="F302" t="str">
-        <f>VLOOKUP(E302,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E302,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G302" s="2" t="s">
@@ -19283,7 +19289,7 @@
         <v>23</v>
       </c>
       <c r="F303" t="str">
-        <f>VLOOKUP(E303,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E303,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G303" s="2" t="s">
@@ -19344,7 +19350,7 @@
         <v>23</v>
       </c>
       <c r="F304" t="str">
-        <f>VLOOKUP(E304,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E304,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G304" s="2" t="s">
@@ -19405,7 +19411,7 @@
         <v>23</v>
       </c>
       <c r="F305" t="str">
-        <f>VLOOKUP(E305,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E305,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G305" s="2" t="s">
@@ -19466,7 +19472,7 @@
         <v>23</v>
       </c>
       <c r="F306" t="str">
-        <f>VLOOKUP(E306,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E306,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G306" s="2" t="s">
@@ -19527,7 +19533,7 @@
         <v>23</v>
       </c>
       <c r="F307" t="str">
-        <f>VLOOKUP(E307,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E307,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G307" s="2" t="s">
@@ -19588,7 +19594,7 @@
         <v>23</v>
       </c>
       <c r="F308" t="str">
-        <f>VLOOKUP(E308,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E308,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G308" s="2" t="s">
@@ -19649,7 +19655,7 @@
         <v>23</v>
       </c>
       <c r="F309" t="str">
-        <f>VLOOKUP(E309,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E309,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G309" s="2" t="s">
@@ -19710,7 +19716,7 @@
         <v>23</v>
       </c>
       <c r="F310" t="str">
-        <f>VLOOKUP(E310,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E310,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G310" s="2" t="s">
@@ -19771,7 +19777,7 @@
         <v>23</v>
       </c>
       <c r="F311" t="str">
-        <f>VLOOKUP(E311,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E311,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G311" s="2" t="s">
@@ -19832,7 +19838,7 @@
         <v>23</v>
       </c>
       <c r="F312" t="str">
-        <f>VLOOKUP(E312,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E312,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G312" s="2" t="s">
@@ -19893,7 +19899,7 @@
         <v>23</v>
       </c>
       <c r="F313" t="str">
-        <f>VLOOKUP(E313,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E313,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G313" s="2" t="s">
@@ -19954,7 +19960,7 @@
         <v>23</v>
       </c>
       <c r="F314" t="str">
-        <f>VLOOKUP(E314,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E314,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G314" s="2" t="s">
@@ -20015,7 +20021,7 @@
         <v>23</v>
       </c>
       <c r="F315" t="str">
-        <f>VLOOKUP(E315,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E315,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G315" s="2" t="s">
@@ -20076,7 +20082,7 @@
         <v>23</v>
       </c>
       <c r="F316" t="str">
-        <f>VLOOKUP(E316,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E316,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G316" s="2" t="s">
@@ -20137,7 +20143,7 @@
         <v>23</v>
       </c>
       <c r="F317" t="str">
-        <f>VLOOKUP(E317,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E317,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G317" s="2" t="s">
@@ -20198,7 +20204,7 @@
         <v>23</v>
       </c>
       <c r="F318" t="str">
-        <f>VLOOKUP(E318,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E318,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G318" s="2" t="s">
@@ -20259,7 +20265,7 @@
         <v>23</v>
       </c>
       <c r="F319" t="str">
-        <f>VLOOKUP(E319,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E319,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G319" s="2" t="s">
@@ -20320,7 +20326,7 @@
         <v>23</v>
       </c>
       <c r="F320" t="str">
-        <f>VLOOKUP(E320,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E320,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G320" s="2" t="s">
@@ -20381,7 +20387,7 @@
         <v>23</v>
       </c>
       <c r="F321" t="str">
-        <f>VLOOKUP(E321,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E321,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G321" s="2" t="s">
@@ -20442,7 +20448,7 @@
         <v>23</v>
       </c>
       <c r="F322" t="str">
-        <f>VLOOKUP(E322,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E322,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G322" s="2" t="s">
@@ -20503,7 +20509,7 @@
         <v>23</v>
       </c>
       <c r="F323" t="str">
-        <f>VLOOKUP(E323,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E323,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G323" s="2" t="s">
@@ -20535,15 +20541,15 @@
         <v>4.5652173913043477</v>
       </c>
       <c r="P323">
-        <f t="shared" ref="P323:P350" si="21">SQRT(SUM(J323*(5-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, K323*(4-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, L323*(3-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, M323*(2-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, N323*(1-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2)/SUM(J323:N323))</f>
+        <f t="shared" ref="P323:P360" si="21">SQRT(SUM(J323*(5-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, K323*(4-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, L323*(3-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, M323*(2-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2, N323*(1-((J323*5 + K323*4 + L323*3 + M323*2 + N323*1)/SUM(J323:N323)))^2)/SUM(J323:N323))</f>
         <v>0.57680431136615651</v>
       </c>
       <c r="Q323">
-        <f t="shared" ref="Q323:Q350" si="22">(J323*5+K323*4)/SUM(J323:K323)</f>
+        <f t="shared" ref="Q323:Q360" si="22">(J323*5+K323*4)/SUM(J323:K323)</f>
         <v>4.6363636363636367</v>
       </c>
       <c r="R323" s="1">
-        <f t="shared" ref="R323:R350" si="23">SQRT(SUM(J323*(5-((J323*5 + K323*4)/SUM(J323:K323)))^2, K323*(4-((J323*5 + K323*4)/SUM(J323:K323)))^2)/SUM(J323:K323))</f>
+        <f t="shared" ref="R323:R360" si="23">SQRT(SUM(J323*(5-((J323*5 + K323*4)/SUM(J323:K323)))^2, K323*(4-((J323*5 + K323*4)/SUM(J323:K323)))^2)/SUM(J323:K323))</f>
         <v>0.48104569292083466</v>
       </c>
     </row>
@@ -20564,7 +20570,7 @@
         <v>23</v>
       </c>
       <c r="F324" t="str">
-        <f>VLOOKUP(E324,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E324,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G324" s="2" t="s">
@@ -20625,7 +20631,7 @@
         <v>23</v>
       </c>
       <c r="F325" t="str">
-        <f>VLOOKUP(E325,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E325,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G325" s="2" t="s">
@@ -20686,7 +20692,7 @@
         <v>23</v>
       </c>
       <c r="F326" t="str">
-        <f>VLOOKUP(E326,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E326,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G326" s="2" t="s">
@@ -20747,7 +20753,7 @@
         <v>23</v>
       </c>
       <c r="F327" t="str">
-        <f>VLOOKUP(E327,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E327,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G327" s="2" t="s">
@@ -20808,7 +20814,7 @@
         <v>23</v>
       </c>
       <c r="F328" t="str">
-        <f>VLOOKUP(E328,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E328,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G328" s="2" t="s">
@@ -20869,7 +20875,7 @@
         <v>23</v>
       </c>
       <c r="F329" t="str">
-        <f>VLOOKUP(E329,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E329,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G329" s="2" t="s">
@@ -20930,7 +20936,7 @@
         <v>23</v>
       </c>
       <c r="F330" t="str">
-        <f>VLOOKUP(E330,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E330,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G330" s="2" t="s">
@@ -20991,7 +20997,7 @@
         <v>23</v>
       </c>
       <c r="F331" t="str">
-        <f>VLOOKUP(E331,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E331,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G331" s="2" t="s">
@@ -21052,7 +21058,7 @@
         <v>23</v>
       </c>
       <c r="F332" t="str">
-        <f>VLOOKUP(E332,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E332,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G332" s="2" t="s">
@@ -21113,7 +21119,7 @@
         <v>23</v>
       </c>
       <c r="F333" t="str">
-        <f>VLOOKUP(E333,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E333,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G333" s="2" t="s">
@@ -21174,7 +21180,7 @@
         <v>23</v>
       </c>
       <c r="F334" t="str">
-        <f>VLOOKUP(E334,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E334,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G334" s="2" t="s">
@@ -21235,7 +21241,7 @@
         <v>23</v>
       </c>
       <c r="F335" t="str">
-        <f>VLOOKUP(E335,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E335,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G335" s="2" t="s">
@@ -21296,7 +21302,7 @@
         <v>23</v>
       </c>
       <c r="F336" t="str">
-        <f>VLOOKUP(E336,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E336,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G336" s="2" t="s">
@@ -21357,7 +21363,7 @@
         <v>23</v>
       </c>
       <c r="F337" t="str">
-        <f>VLOOKUP(E337,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E337,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G337" s="2" t="s">
@@ -21418,7 +21424,7 @@
         <v>23</v>
       </c>
       <c r="F338" t="str">
-        <f>VLOOKUP(E338,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E338,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G338" s="2" t="s">
@@ -21479,7 +21485,7 @@
         <v>23</v>
       </c>
       <c r="F339" t="str">
-        <f>VLOOKUP(E339,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E339,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G339" s="2" t="s">
@@ -21540,7 +21546,7 @@
         <v>23</v>
       </c>
       <c r="F340" t="str">
-        <f>VLOOKUP(E340,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E340,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G340" s="2" t="s">
@@ -21601,7 +21607,7 @@
         <v>23</v>
       </c>
       <c r="F341" t="str">
-        <f>VLOOKUP(E341,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E341,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G341" s="2" t="s">
@@ -21662,7 +21668,7 @@
         <v>23</v>
       </c>
       <c r="F342" t="str">
-        <f>VLOOKUP(E342,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E342,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G342" s="2" t="s">
@@ -21723,7 +21729,7 @@
         <v>23</v>
       </c>
       <c r="F343" t="str">
-        <f>VLOOKUP(E343,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E343,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G343" s="2" t="s">
@@ -21784,7 +21790,7 @@
         <v>23</v>
       </c>
       <c r="F344" t="str">
-        <f>VLOOKUP(E344,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E344,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G344" s="2" t="s">
@@ -21845,7 +21851,7 @@
         <v>23</v>
       </c>
       <c r="F345" t="str">
-        <f>VLOOKUP(E345,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E345,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G345" s="2" t="s">
@@ -21906,7 +21912,7 @@
         <v>23</v>
       </c>
       <c r="F346" t="str">
-        <f>VLOOKUP(E346,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E346,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G346" s="2" t="s">
@@ -21967,7 +21973,7 @@
         <v>23</v>
       </c>
       <c r="F347" t="str">
-        <f>VLOOKUP(E347,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E347,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G347" s="2" t="s">
@@ -22028,7 +22034,7 @@
         <v>23</v>
       </c>
       <c r="F348" t="str">
-        <f>VLOOKUP(E348,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E348,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G348" s="2" t="s">
@@ -22089,7 +22095,7 @@
         <v>23</v>
       </c>
       <c r="F349" t="str">
-        <f>VLOOKUP(E349,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E349,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G349" s="2" t="s">
@@ -22150,7 +22156,7 @@
         <v>23</v>
       </c>
       <c r="F350" t="str">
-        <f>VLOOKUP(E350,Courses!E$1:F$20,2,FALSE)</f>
+        <f>VLOOKUP(E350,Courses!E$1:F$21,2,FALSE)</f>
         <v>Science and Technology for Humanity</v>
       </c>
       <c r="G350" s="2" t="s">
@@ -22194,14 +22200,614 @@
         <v>0.41907020260422218</v>
       </c>
     </row>
-    <row r="353" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A351" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B351" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" t="s">
+        <v>42</v>
+      </c>
+      <c r="D351" t="s">
+        <v>39</v>
+      </c>
+      <c r="E351" t="s">
+        <v>124</v>
+      </c>
+      <c r="F351" t="str">
+        <f>VLOOKUP(E351,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G351" t="s">
+        <v>34</v>
+      </c>
+      <c r="H351">
+        <v>19</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J351" s="1">
+        <v>4</v>
+      </c>
+      <c r="K351" s="1">
+        <v>3</v>
+      </c>
+      <c r="L351" s="1">
+        <v>2</v>
+      </c>
+      <c r="M351" s="1">
+        <v>2</v>
+      </c>
+      <c r="N351" s="1">
+        <v>1</v>
+      </c>
+      <c r="O351">
+        <f t="shared" ref="O351:O360" si="24">(J351*5+K351*4+L351*3+M351*2+N351*1)/SUM(J351:N351)</f>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="P351">
+        <f t="shared" si="21"/>
+        <v>1.3202482931462383</v>
+      </c>
+      <c r="Q351">
+        <f t="shared" si="22"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="R351" s="1">
+        <f t="shared" si="23"/>
+        <v>0.49487165930539351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A352" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B352" t="s">
+        <v>14</v>
+      </c>
+      <c r="C352" t="s">
+        <v>42</v>
+      </c>
+      <c r="D352" t="s">
+        <v>39</v>
+      </c>
+      <c r="E352" t="s">
+        <v>124</v>
+      </c>
+      <c r="F352" t="str">
+        <f>VLOOKUP(E352,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G352" t="s">
+        <v>34</v>
+      </c>
+      <c r="H352">
+        <v>19</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J352" s="1">
+        <v>4</v>
+      </c>
+      <c r="K352" s="1">
+        <v>2</v>
+      </c>
+      <c r="L352" s="1">
+        <v>2</v>
+      </c>
+      <c r="M352" s="1">
+        <v>2</v>
+      </c>
+      <c r="N352" s="1">
+        <v>2</v>
+      </c>
+      <c r="O352">
+        <f t="shared" si="24"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="P352">
+        <f t="shared" si="21"/>
+        <v>1.49071198499986</v>
+      </c>
+      <c r="Q352">
+        <f t="shared" si="22"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="R352" s="1">
+        <f t="shared" si="23"/>
+        <v>0.47140452079103168</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A353" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B353" t="s">
+        <v>14</v>
+      </c>
+      <c r="C353" t="s">
+        <v>42</v>
+      </c>
+      <c r="D353" t="s">
+        <v>39</v>
+      </c>
+      <c r="E353" t="s">
+        <v>124</v>
+      </c>
+      <c r="F353" t="str">
+        <f>VLOOKUP(E353,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G353" t="s">
+        <v>34</v>
+      </c>
+      <c r="H353">
+        <v>19</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J353" s="1">
+        <v>5</v>
+      </c>
+      <c r="K353" s="1">
+        <v>2</v>
+      </c>
+      <c r="L353" s="1">
+        <v>5</v>
+      </c>
+      <c r="M353" s="1">
+        <v>0</v>
+      </c>
+      <c r="N353" s="1">
+        <v>0</v>
+      </c>
       <c r="O353">
-        <f>MIN(O1:O350)</f>
-        <v>4</v>
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="P353">
+        <f t="shared" si="21"/>
+        <v>0.9128709291752769</v>
       </c>
       <c r="Q353">
-        <f>MIN(Q1:Q350)</f>
-        <v>4.2</v>
+        <f t="shared" si="22"/>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="R353" s="1">
+        <f t="shared" si="23"/>
+        <v>0.45175395145262565</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A354" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B354" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354" t="s">
+        <v>42</v>
+      </c>
+      <c r="D354" t="s">
+        <v>39</v>
+      </c>
+      <c r="E354" t="s">
+        <v>124</v>
+      </c>
+      <c r="F354" t="str">
+        <f>VLOOKUP(E354,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G354" t="s">
+        <v>34</v>
+      </c>
+      <c r="H354">
+        <v>19</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J354" s="1">
+        <v>6</v>
+      </c>
+      <c r="K354" s="1">
+        <v>2</v>
+      </c>
+      <c r="L354" s="1">
+        <v>2</v>
+      </c>
+      <c r="M354" s="1">
+        <v>1</v>
+      </c>
+      <c r="N354" s="1">
+        <v>1</v>
+      </c>
+      <c r="O354">
+        <f t="shared" si="24"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="P354">
+        <f t="shared" si="21"/>
+        <v>1.3202482931462383</v>
+      </c>
+      <c r="Q354">
+        <f t="shared" si="22"/>
+        <v>4.75</v>
+      </c>
+      <c r="R354" s="1">
+        <f t="shared" si="23"/>
+        <v>0.4330127018922193</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A355" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B355" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355" t="s">
+        <v>42</v>
+      </c>
+      <c r="D355" t="s">
+        <v>39</v>
+      </c>
+      <c r="E355" t="s">
+        <v>124</v>
+      </c>
+      <c r="F355" t="str">
+        <f>VLOOKUP(E355,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G355" t="s">
+        <v>34</v>
+      </c>
+      <c r="H355">
+        <v>19</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J355" s="1">
+        <v>3</v>
+      </c>
+      <c r="K355" s="1">
+        <v>3</v>
+      </c>
+      <c r="L355" s="1">
+        <v>3</v>
+      </c>
+      <c r="M355" s="1">
+        <v>2</v>
+      </c>
+      <c r="N355" s="1">
+        <v>1</v>
+      </c>
+      <c r="O355">
+        <f t="shared" si="24"/>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="P355">
+        <f t="shared" si="21"/>
+        <v>1.2555432644432805</v>
+      </c>
+      <c r="Q355">
+        <f t="shared" si="22"/>
+        <v>4.5</v>
+      </c>
+      <c r="R355" s="1">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A356" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B356" t="s">
+        <v>14</v>
+      </c>
+      <c r="C356" t="s">
+        <v>42</v>
+      </c>
+      <c r="D356" t="s">
+        <v>39</v>
+      </c>
+      <c r="E356" t="s">
+        <v>124</v>
+      </c>
+      <c r="F356" t="str">
+        <f>VLOOKUP(E356,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G356" t="s">
+        <v>34</v>
+      </c>
+      <c r="H356">
+        <v>19</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J356" s="1">
+        <v>4</v>
+      </c>
+      <c r="K356" s="1">
+        <v>5</v>
+      </c>
+      <c r="L356" s="1">
+        <v>2</v>
+      </c>
+      <c r="M356" s="1">
+        <v>0</v>
+      </c>
+      <c r="N356" s="1">
+        <v>1</v>
+      </c>
+      <c r="O356">
+        <f t="shared" si="24"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="P356">
+        <f t="shared" si="21"/>
+        <v>1.1149240133549709</v>
+      </c>
+      <c r="Q356">
+        <f t="shared" si="22"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="R356" s="1">
+        <f t="shared" si="23"/>
+        <v>0.4969039949999533</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A357" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B357" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" t="s">
+        <v>42</v>
+      </c>
+      <c r="D357" t="s">
+        <v>39</v>
+      </c>
+      <c r="E357" t="s">
+        <v>124</v>
+      </c>
+      <c r="F357" t="str">
+        <f>VLOOKUP(E357,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G357" t="s">
+        <v>34</v>
+      </c>
+      <c r="H357">
+        <v>19</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J357" s="1">
+        <v>4</v>
+      </c>
+      <c r="K357" s="1">
+        <v>4</v>
+      </c>
+      <c r="L357" s="1">
+        <v>2</v>
+      </c>
+      <c r="M357" s="1">
+        <v>1</v>
+      </c>
+      <c r="N357" s="1">
+        <v>1</v>
+      </c>
+      <c r="O357">
+        <f t="shared" si="24"/>
+        <v>3.75</v>
+      </c>
+      <c r="P357">
+        <f t="shared" si="21"/>
+        <v>1.2332207155790618</v>
+      </c>
+      <c r="Q357">
+        <f t="shared" si="22"/>
+        <v>4.5</v>
+      </c>
+      <c r="R357" s="1">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A358" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B358" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358" t="s">
+        <v>42</v>
+      </c>
+      <c r="D358" t="s">
+        <v>39</v>
+      </c>
+      <c r="E358" t="s">
+        <v>124</v>
+      </c>
+      <c r="F358" t="str">
+        <f>VLOOKUP(E358,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G358" t="s">
+        <v>34</v>
+      </c>
+      <c r="H358">
+        <v>19</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J358" s="1">
+        <v>4</v>
+      </c>
+      <c r="K358" s="1">
+        <v>4</v>
+      </c>
+      <c r="L358" s="1">
+        <v>1</v>
+      </c>
+      <c r="M358" s="1">
+        <v>0</v>
+      </c>
+      <c r="N358" s="1">
+        <v>3</v>
+      </c>
+      <c r="O358">
+        <f t="shared" si="24"/>
+        <v>3.5</v>
+      </c>
+      <c r="P358">
+        <f t="shared" si="21"/>
+        <v>1.5545631755148024</v>
+      </c>
+      <c r="Q358">
+        <f t="shared" si="22"/>
+        <v>4.5</v>
+      </c>
+      <c r="R358" s="1">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A359" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B359" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359" t="s">
+        <v>42</v>
+      </c>
+      <c r="D359" t="s">
+        <v>39</v>
+      </c>
+      <c r="E359" t="s">
+        <v>124</v>
+      </c>
+      <c r="F359" t="str">
+        <f>VLOOKUP(E359,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G359" t="s">
+        <v>34</v>
+      </c>
+      <c r="H359">
+        <v>19</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J359" s="1">
+        <v>4</v>
+      </c>
+      <c r="K359" s="1">
+        <v>4</v>
+      </c>
+      <c r="L359" s="1">
+        <v>3</v>
+      </c>
+      <c r="M359" s="1">
+        <v>0</v>
+      </c>
+      <c r="N359" s="1">
+        <v>1</v>
+      </c>
+      <c r="O359">
+        <f t="shared" si="24"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="P359">
+        <f t="shared" si="21"/>
+        <v>1.1426091000668408</v>
+      </c>
+      <c r="Q359">
+        <f t="shared" si="22"/>
+        <v>4.5</v>
+      </c>
+      <c r="R359" s="1">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A360" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B360" t="s">
+        <v>14</v>
+      </c>
+      <c r="C360" t="s">
+        <v>42</v>
+      </c>
+      <c r="D360" t="s">
+        <v>39</v>
+      </c>
+      <c r="E360" t="s">
+        <v>124</v>
+      </c>
+      <c r="F360" t="str">
+        <f>VLOOKUP(E360,Courses!E$1:F$21,2,FALSE)</f>
+        <v>Advanced Numerical Methods for Physicist</v>
+      </c>
+      <c r="G360" t="s">
+        <v>34</v>
+      </c>
+      <c r="H360">
+        <v>19</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J360" s="1">
+        <v>4</v>
+      </c>
+      <c r="K360" s="1">
+        <v>6</v>
+      </c>
+      <c r="L360" s="1">
+        <v>1</v>
+      </c>
+      <c r="M360" s="1">
+        <v>0</v>
+      </c>
+      <c r="N360" s="1">
+        <v>1</v>
+      </c>
+      <c r="O360">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="P360">
+        <f t="shared" si="21"/>
+        <v>1.0801234497346435</v>
+      </c>
+      <c r="Q360">
+        <f t="shared" si="22"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R360" s="1">
+        <f t="shared" si="23"/>
+        <v>0.48989794855663565</v>
       </c>
     </row>
   </sheetData>
@@ -22212,10 +22818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58A8AA7-DC45-4847-B0AA-C76B27A0E50B}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22741,6 +23347,32 @@
       </c>
       <c r="H20">
         <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/All_SFT.xlsx
+++ b/All_SFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joellaiwj/Python Projects/My-SFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9940A6C5-4B24-FC41-A800-4805D5F5FAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A17B6D-AEB7-DA46-A58B-FFD68ADD102B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6452D0D9-7B50-DC4F-A1B1-92307B105887}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="127">
   <si>
     <t>AcadYear</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>Advanced Numerical Methods for Physicist</t>
+  </si>
+  <si>
+    <t>Graduate</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
   <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="E365" sqref="E365"/>
+      <selection activeCell="E366" sqref="E366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22208,7 +22211,7 @@
         <v>14</v>
       </c>
       <c r="C351" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D351" t="s">
         <v>39</v>
@@ -22269,7 +22272,7 @@
         <v>14</v>
       </c>
       <c r="C352" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D352" t="s">
         <v>39</v>
@@ -22330,7 +22333,7 @@
         <v>14</v>
       </c>
       <c r="C353" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D353" t="s">
         <v>39</v>
@@ -22391,7 +22394,7 @@
         <v>14</v>
       </c>
       <c r="C354" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D354" t="s">
         <v>39</v>
@@ -22452,7 +22455,7 @@
         <v>14</v>
       </c>
       <c r="C355" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D355" t="s">
         <v>39</v>
@@ -22513,7 +22516,7 @@
         <v>14</v>
       </c>
       <c r="C356" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D356" t="s">
         <v>39</v>
@@ -22574,7 +22577,7 @@
         <v>14</v>
       </c>
       <c r="C357" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D357" t="s">
         <v>39</v>
@@ -22635,7 +22638,7 @@
         <v>14</v>
       </c>
       <c r="C358" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D358" t="s">
         <v>39</v>
@@ -22696,7 +22699,7 @@
         <v>14</v>
       </c>
       <c r="C359" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D359" t="s">
         <v>39</v>
@@ -22757,7 +22760,7 @@
         <v>14</v>
       </c>
       <c r="C360" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D360" t="s">
         <v>39</v>

--- a/All_SFT.xlsx
+++ b/All_SFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joellaiwj/Python Projects/My-SFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A17B6D-AEB7-DA46-A58B-FFD68ADD102B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16871721-BC1A-1B49-A244-95224BB440E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6452D0D9-7B50-DC4F-A1B1-92307B105887}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{6452D0D9-7B50-DC4F-A1B1-92307B105887}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -849,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996AF5CA-C387-FD4F-8253-FCE405315E0A}">
   <dimension ref="A1:R360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+    <sheetView topLeftCell="A341" workbookViewId="0">
       <selection activeCell="E366" sqref="E366"/>
     </sheetView>
   </sheetViews>
@@ -22823,8 +22823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58A8AA7-DC45-4847-B0AA-C76B27A0E50B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23360,7 +23360,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>

--- a/All_SFT.xlsx
+++ b/All_SFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joellaiwj/Python Projects/My-SFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16871721-BC1A-1B49-A244-95224BB440E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00AB2C6-B2AE-B546-A29C-7E8BBFC541F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{6452D0D9-7B50-DC4F-A1B1-92307B105887}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{6452D0D9-7B50-DC4F-A1B1-92307B105887}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Encouraged Engagement</t>
-  </si>
-  <si>
-    <t>Communicated Clarity</t>
   </si>
   <si>
     <t>Demonstrated Approachability</t>
@@ -420,6 +417,9 @@
   </si>
   <si>
     <t>Graduate</t>
+  </si>
+  <si>
+    <t>Communicated Clearly</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="E366" sqref="E366"/>
+      <selection activeCell="I365" sqref="I365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -902,16 +902,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>120</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1002,7 +1002,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -1063,7 +1063,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1124,7 +1124,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1185,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1246,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1429,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1">
         <v>10</v>
@@ -1551,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1">
         <v>10</v>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1">
         <v>9</v>
@@ -1673,7 +1673,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1">
         <v>9</v>
@@ -1734,7 +1734,7 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" s="1">
         <v>9</v>
@@ -1856,7 +1856,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J17" s="1">
         <v>4</v>
@@ -1917,7 +1917,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1">
         <v>4</v>
@@ -1978,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -2039,7 +2039,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -2100,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="1">
         <v>3</v>
@@ -2161,7 +2161,7 @@
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -2283,7 +2283,7 @@
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J24" s="1">
         <v>6</v>
@@ -2344,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="1">
         <v>6</v>
@@ -2405,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="1">
         <v>6</v>
@@ -2527,7 +2527,7 @@
         <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J28" s="1">
         <v>6</v>
@@ -2588,7 +2588,7 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" s="1">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J31" s="1">
         <v>8</v>
@@ -2771,7 +2771,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" s="1">
         <v>8</v>
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33" s="1">
         <v>7</v>
@@ -2893,7 +2893,7 @@
         <v>25</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="1">
         <v>7</v>
@@ -3137,7 +3137,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -3198,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="1">
         <v>4</v>
@@ -3259,7 +3259,7 @@
         <v>27</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J40" s="1">
         <v>5</v>
@@ -3320,7 +3320,7 @@
         <v>27</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J41" s="1">
         <v>4</v>
@@ -3564,7 +3564,7 @@
         <v>46</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J45" s="1">
         <v>3</v>
@@ -3625,7 +3625,7 @@
         <v>46</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" s="1">
         <v>4</v>
@@ -3686,7 +3686,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J47" s="1">
         <v>3</v>
@@ -3747,7 +3747,7 @@
         <v>46</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J48" s="1">
         <v>3</v>
@@ -3808,7 +3808,7 @@
         <v>46</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J49" s="1">
         <v>3</v>
@@ -3869,7 +3869,7 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J50" s="1">
         <v>4</v>
@@ -3991,7 +3991,7 @@
         <v>24</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J52" s="1">
         <v>4</v>
@@ -4052,7 +4052,7 @@
         <v>25</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" s="1">
         <v>4</v>
@@ -4113,7 +4113,7 @@
         <v>25</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J54" s="1">
         <v>4</v>
@@ -4174,7 +4174,7 @@
         <v>24</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J55" s="1">
         <v>2</v>
@@ -4235,7 +4235,7 @@
         <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J56" s="1">
         <v>3</v>
@@ -4479,7 +4479,7 @@
         <v>19</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J60" s="1">
         <v>9</v>
@@ -4540,7 +4540,7 @@
         <v>19</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J61" s="1">
         <v>8</v>
@@ -4601,7 +4601,7 @@
         <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J62" s="1">
         <v>9</v>
@@ -4662,7 +4662,7 @@
         <v>19</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J63" s="1">
         <v>9</v>
@@ -4723,7 +4723,7 @@
         <v>19</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J64" s="1">
         <v>8</v>
@@ -4967,7 +4967,7 @@
         <v>22</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J68" s="1">
         <v>10</v>
@@ -5028,7 +5028,7 @@
         <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J69" s="1">
         <v>11</v>
@@ -5089,7 +5089,7 @@
         <v>22</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J70" s="1">
         <v>10</v>
@@ -5150,7 +5150,7 @@
         <v>22</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J71" s="1">
         <v>11</v>
@@ -5211,7 +5211,7 @@
         <v>22</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J72" s="1">
         <v>11</v>
@@ -5455,7 +5455,7 @@
         <v>24</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J76" s="1">
         <v>4</v>
@@ -5516,7 +5516,7 @@
         <v>24</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J77" s="1">
         <v>3</v>
@@ -5577,7 +5577,7 @@
         <v>24</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J78" s="1">
         <v>3</v>
@@ -5638,7 +5638,7 @@
         <v>24</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J79" s="1">
         <v>4</v>
@@ -5699,7 +5699,7 @@
         <v>24</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J80" s="1">
         <v>5</v>
@@ -5760,7 +5760,7 @@
         <v>24</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J81" s="1">
         <v>5</v>
@@ -5821,7 +5821,7 @@
         <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J82" s="1">
         <v>2</v>
@@ -5943,7 +5943,7 @@
         <v>29</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J84" s="1">
         <v>18</v>
@@ -6004,7 +6004,7 @@
         <v>29</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J85" s="1">
         <v>18</v>
@@ -6065,7 +6065,7 @@
         <v>29</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J86" s="1">
         <v>19</v>
@@ -6126,7 +6126,7 @@
         <v>29</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J87" s="1">
         <v>17</v>
@@ -6187,7 +6187,7 @@
         <v>29</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J88" s="1">
         <v>15</v>
@@ -6431,7 +6431,7 @@
         <v>35</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J92" s="1">
         <v>14</v>
@@ -6492,7 +6492,7 @@
         <v>35</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J93" s="1">
         <v>12</v>
@@ -6553,7 +6553,7 @@
         <v>35</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J94" s="1">
         <v>14</v>
@@ -6614,7 +6614,7 @@
         <v>35</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J95" s="1">
         <v>11</v>
@@ -6675,7 +6675,7 @@
         <v>35</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J96" s="1">
         <v>12</v>
@@ -6919,7 +6919,7 @@
         <v>35</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J100" s="1">
         <v>11</v>
@@ -6980,7 +6980,7 @@
         <v>35</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J101" s="1">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>35</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J102" s="1">
         <v>10</v>
@@ -7102,7 +7102,7 @@
         <v>35</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J103" s="1">
         <v>10</v>
@@ -7163,7 +7163,7 @@
         <v>35</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J104" s="1">
         <v>9</v>
@@ -7407,7 +7407,7 @@
         <v>29</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J108" s="1">
         <v>12</v>
@@ -7468,7 +7468,7 @@
         <v>29</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J109" s="1">
         <v>11</v>
@@ -7529,7 +7529,7 @@
         <v>29</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J110" s="1">
         <v>12</v>
@@ -7590,7 +7590,7 @@
         <v>29</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J111" s="1">
         <v>11</v>
@@ -7651,7 +7651,7 @@
         <v>29</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J112" s="1">
         <v>12</v>
@@ -7895,7 +7895,7 @@
         <v>24</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J116" s="1">
         <v>14</v>
@@ -7956,7 +7956,7 @@
         <v>24</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J117" s="1">
         <v>13</v>
@@ -8017,7 +8017,7 @@
         <v>24</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J118" s="1">
         <v>13</v>
@@ -8078,7 +8078,7 @@
         <v>24</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J119" s="1">
         <v>12</v>
@@ -8139,7 +8139,7 @@
         <v>24</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J120" s="1">
         <v>12</v>
@@ -8383,7 +8383,7 @@
         <v>25</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J124" s="1">
         <v>16</v>
@@ -8444,7 +8444,7 @@
         <v>25</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J125" s="1">
         <v>15</v>
@@ -8505,7 +8505,7 @@
         <v>25</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J126" s="1">
         <v>16</v>
@@ -8566,7 +8566,7 @@
         <v>25</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J127" s="1">
         <v>15</v>
@@ -8627,7 +8627,7 @@
         <v>25</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J128" s="1">
         <v>15</v>
@@ -8871,7 +8871,7 @@
         <v>24</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J132" s="2">
         <v>5</v>
@@ -8932,7 +8932,7 @@
         <v>24</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J133" s="2">
         <v>5</v>
@@ -8993,7 +8993,7 @@
         <v>24</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J134" s="2">
         <v>5</v>
@@ -9054,7 +9054,7 @@
         <v>24</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J135" s="2">
         <v>4</v>
@@ -9115,7 +9115,7 @@
         <v>24</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J136" s="2">
         <v>4</v>
@@ -9176,7 +9176,7 @@
         <v>24</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J137" s="2">
         <v>5</v>
@@ -9237,7 +9237,7 @@
         <v>24</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J138" s="2">
         <v>5</v>
@@ -9298,7 +9298,7 @@
         <v>24</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J139" s="2">
         <v>5</v>
@@ -9359,7 +9359,7 @@
         <v>24</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J140" s="2">
         <v>5</v>
@@ -9481,7 +9481,7 @@
         <v>22</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J142" s="1">
         <v>5</v>
@@ -9542,7 +9542,7 @@
         <v>22</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J143" s="1">
         <v>5</v>
@@ -9603,7 +9603,7 @@
         <v>22</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J144" s="1">
         <v>4</v>
@@ -9664,7 +9664,7 @@
         <v>22</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J145" s="1">
         <v>4</v>
@@ -9725,7 +9725,7 @@
         <v>22</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J146" s="1">
         <v>3</v>
@@ -9786,7 +9786,7 @@
         <v>22</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J147" s="1">
         <v>4</v>
@@ -9847,7 +9847,7 @@
         <v>22</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J148" s="1">
         <v>4</v>
@@ -9908,7 +9908,7 @@
         <v>22</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J149" s="1">
         <v>2</v>
@@ -9969,7 +9969,7 @@
         <v>22</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J150" s="1">
         <v>3</v>
@@ -10091,7 +10091,7 @@
         <v>28</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J152" s="1">
         <v>8</v>
@@ -10152,7 +10152,7 @@
         <v>28</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J153" s="1">
         <v>7</v>
@@ -10213,7 +10213,7 @@
         <v>28</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J154" s="1">
         <v>8</v>
@@ -10274,7 +10274,7 @@
         <v>28</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J155" s="1">
         <v>6</v>
@@ -10335,7 +10335,7 @@
         <v>28</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J156" s="1">
         <v>7</v>
@@ -10396,7 +10396,7 @@
         <v>28</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J157" s="1">
         <v>8</v>
@@ -10457,7 +10457,7 @@
         <v>28</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J158" s="1">
         <v>5</v>
@@ -10518,7 +10518,7 @@
         <v>28</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J159" s="1">
         <v>6</v>
@@ -10579,7 +10579,7 @@
         <v>28</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J160" s="1">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         <v>30</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J162" s="1">
         <v>5</v>
@@ -10762,7 +10762,7 @@
         <v>30</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J163" s="1">
         <v>5</v>
@@ -10823,7 +10823,7 @@
         <v>30</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J164" s="1">
         <v>5</v>
@@ -10884,7 +10884,7 @@
         <v>30</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J165" s="1">
         <v>3</v>
@@ -10945,7 +10945,7 @@
         <v>30</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J166" s="1">
         <v>5</v>
@@ -11006,7 +11006,7 @@
         <v>30</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J167" s="1">
         <v>5</v>
@@ -11067,7 +11067,7 @@
         <v>30</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J168" s="1">
         <v>4</v>
@@ -11128,7 +11128,7 @@
         <v>30</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J169" s="1">
         <v>4</v>
@@ -11189,7 +11189,7 @@
         <v>30</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J170" s="1">
         <v>4</v>
@@ -11311,7 +11311,7 @@
         <v>26</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J172" s="1">
         <v>5</v>
@@ -11372,7 +11372,7 @@
         <v>26</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J173" s="1">
         <v>6</v>
@@ -11433,7 +11433,7 @@
         <v>26</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J174" s="1">
         <v>6</v>
@@ -11494,7 +11494,7 @@
         <v>26</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J175" s="1">
         <v>4</v>
@@ -11555,7 +11555,7 @@
         <v>26</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J176" s="1">
         <v>6</v>
@@ -11616,7 +11616,7 @@
         <v>26</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J177" s="1">
         <v>6</v>
@@ -11677,7 +11677,7 @@
         <v>26</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J178" s="1">
         <v>6</v>
@@ -11738,7 +11738,7 @@
         <v>26</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J179" s="1">
         <v>5</v>
@@ -11799,7 +11799,7 @@
         <v>26</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J180" s="1">
         <v>6</v>
@@ -11921,7 +11921,7 @@
         <v>19</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J182" s="1">
         <v>7</v>
@@ -11982,7 +11982,7 @@
         <v>19</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J183" s="1">
         <v>7</v>
@@ -12043,7 +12043,7 @@
         <v>19</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J184" s="1">
         <v>6</v>
@@ -12104,7 +12104,7 @@
         <v>19</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J185" s="1">
         <v>6</v>
@@ -12165,7 +12165,7 @@
         <v>19</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J186" s="1">
         <v>7</v>
@@ -12226,7 +12226,7 @@
         <v>19</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J187" s="1">
         <v>7</v>
@@ -12287,7 +12287,7 @@
         <v>19</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J188" s="1">
         <v>6</v>
@@ -12348,7 +12348,7 @@
         <v>19</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J189" s="1">
         <v>5</v>
@@ -12409,7 +12409,7 @@
         <v>19</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J190" s="1">
         <v>6</v>
@@ -12531,7 +12531,7 @@
         <v>23</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J192" s="1">
         <v>6</v>
@@ -12592,7 +12592,7 @@
         <v>23</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J193" s="1">
         <v>7</v>
@@ -12653,7 +12653,7 @@
         <v>23</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J194" s="1">
         <v>7</v>
@@ -12714,7 +12714,7 @@
         <v>23</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J195" s="1">
         <v>5</v>
@@ -12775,7 +12775,7 @@
         <v>23</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J196" s="1">
         <v>5</v>
@@ -12836,7 +12836,7 @@
         <v>23</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J197" s="1">
         <v>6</v>
@@ -12897,7 +12897,7 @@
         <v>23</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J198" s="1">
         <v>6</v>
@@ -12958,7 +12958,7 @@
         <v>23</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J199" s="1">
         <v>5</v>
@@ -13019,7 +13019,7 @@
         <v>23</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J200" s="1">
         <v>6</v>
@@ -13141,7 +13141,7 @@
         <v>21</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J202" s="1">
         <v>5</v>
@@ -13202,7 +13202,7 @@
         <v>21</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J203" s="1">
         <v>5</v>
@@ -13263,7 +13263,7 @@
         <v>21</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J204" s="1">
         <v>5</v>
@@ -13324,7 +13324,7 @@
         <v>21</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J205" s="1">
         <v>2</v>
@@ -13385,7 +13385,7 @@
         <v>21</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J206" s="1">
         <v>4</v>
@@ -13446,7 +13446,7 @@
         <v>21</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J207" s="1">
         <v>4</v>
@@ -13507,7 +13507,7 @@
         <v>21</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J208" s="1">
         <v>4</v>
@@ -13568,7 +13568,7 @@
         <v>21</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J209" s="1">
         <v>1</v>
@@ -13629,7 +13629,7 @@
         <v>21</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J210" s="1">
         <v>5</v>
@@ -13751,7 +13751,7 @@
         <v>11</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J212" s="1">
         <v>3</v>
@@ -13812,7 +13812,7 @@
         <v>11</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J213" s="1">
         <v>3</v>
@@ -13873,7 +13873,7 @@
         <v>11</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J214" s="1">
         <v>2</v>
@@ -13934,7 +13934,7 @@
         <v>11</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J215" s="1">
         <v>2</v>
@@ -13995,7 +13995,7 @@
         <v>11</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J216" s="1">
         <v>1</v>
@@ -14056,7 +14056,7 @@
         <v>11</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J217" s="1">
         <v>3</v>
@@ -14117,7 +14117,7 @@
         <v>11</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J218" s="1">
         <v>3</v>
@@ -14178,7 +14178,7 @@
         <v>11</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J219" s="1">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>11</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J220" s="1">
         <v>3</v>
@@ -14361,7 +14361,7 @@
         <v>23</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J222" s="1">
         <v>8</v>
@@ -14422,7 +14422,7 @@
         <v>23</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J223" s="1">
         <v>8</v>
@@ -14483,7 +14483,7 @@
         <v>23</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J224" s="1">
         <v>8</v>
@@ -14544,7 +14544,7 @@
         <v>23</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J225" s="1">
         <v>7</v>
@@ -14605,7 +14605,7 @@
         <v>23</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J226" s="1">
         <v>6</v>
@@ -14666,7 +14666,7 @@
         <v>23</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J227" s="1">
         <v>8</v>
@@ -14727,7 +14727,7 @@
         <v>23</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J228" s="1">
         <v>8</v>
@@ -14788,7 +14788,7 @@
         <v>23</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J229" s="1">
         <v>7</v>
@@ -14849,7 +14849,7 @@
         <v>23</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J230" s="1">
         <v>8</v>
@@ -14971,7 +14971,7 @@
         <v>24</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J232" s="1">
         <v>1</v>
@@ -15032,7 +15032,7 @@
         <v>24</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J233" s="1">
         <v>2</v>
@@ -15093,7 +15093,7 @@
         <v>24</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J234" s="1">
         <v>1</v>
@@ -15154,7 +15154,7 @@
         <v>24</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J235" s="1">
         <v>2</v>
@@ -15215,7 +15215,7 @@
         <v>24</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J236" s="1">
         <v>1</v>
@@ -15276,7 +15276,7 @@
         <v>24</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J237" s="1">
         <v>2</v>
@@ -15337,7 +15337,7 @@
         <v>24</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J238" s="1">
         <v>2</v>
@@ -15398,7 +15398,7 @@
         <v>24</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J239" s="1">
         <v>1</v>
@@ -15459,7 +15459,7 @@
         <v>24</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J240" s="1">
         <v>2</v>
@@ -15581,7 +15581,7 @@
         <v>22</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J242" s="1">
         <v>6</v>
@@ -15642,7 +15642,7 @@
         <v>22</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J243" s="1">
         <v>6</v>
@@ -15703,7 +15703,7 @@
         <v>22</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J244" s="1">
         <v>6</v>
@@ -15764,7 +15764,7 @@
         <v>22</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J245" s="1">
         <v>6</v>
@@ -15825,7 +15825,7 @@
         <v>22</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J246" s="1">
         <v>5</v>
@@ -15886,7 +15886,7 @@
         <v>22</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J247" s="1">
         <v>6</v>
@@ -15947,7 +15947,7 @@
         <v>22</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J248" s="1">
         <v>6</v>
@@ -16008,7 +16008,7 @@
         <v>22</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J249" s="1">
         <v>5</v>
@@ -16069,7 +16069,7 @@
         <v>22</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J250" s="1">
         <v>6</v>
@@ -16191,7 +16191,7 @@
         <v>24</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J252" s="1">
         <v>2</v>
@@ -16252,7 +16252,7 @@
         <v>24</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J253" s="1">
         <v>2</v>
@@ -16313,7 +16313,7 @@
         <v>24</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J254" s="1">
         <v>2</v>
@@ -16374,7 +16374,7 @@
         <v>24</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J255" s="1">
         <v>2</v>
@@ -16435,7 +16435,7 @@
         <v>24</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J256" s="1">
         <v>2</v>
@@ -16496,7 +16496,7 @@
         <v>24</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J257" s="1">
         <v>2</v>
@@ -16557,7 +16557,7 @@
         <v>24</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J258" s="1">
         <v>2</v>
@@ -16618,7 +16618,7 @@
         <v>24</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J259" s="1">
         <v>2</v>
@@ -16679,7 +16679,7 @@
         <v>24</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J260" s="1">
         <v>2</v>
@@ -16801,7 +16801,7 @@
         <v>25</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J262" s="1">
         <v>6</v>
@@ -16862,7 +16862,7 @@
         <v>25</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J263" s="1">
         <v>6</v>
@@ -16923,7 +16923,7 @@
         <v>25</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J264" s="1">
         <v>6</v>
@@ -16984,7 +16984,7 @@
         <v>25</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J265" s="1">
         <v>5</v>
@@ -17045,7 +17045,7 @@
         <v>25</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J266" s="1">
         <v>5</v>
@@ -17106,7 +17106,7 @@
         <v>25</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J267" s="1">
         <v>5</v>
@@ -17167,7 +17167,7 @@
         <v>25</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J268" s="1">
         <v>5</v>
@@ -17228,7 +17228,7 @@
         <v>25</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J269" s="1">
         <v>4</v>
@@ -17289,7 +17289,7 @@
         <v>25</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J270" s="1">
         <v>5</v>
@@ -17411,7 +17411,7 @@
         <v>26</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J272" s="1">
         <v>4</v>
@@ -17472,7 +17472,7 @@
         <v>26</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J273" s="1">
         <v>4</v>
@@ -17533,7 +17533,7 @@
         <v>26</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J274" s="1">
         <v>4</v>
@@ -17594,7 +17594,7 @@
         <v>26</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J275" s="1">
         <v>4</v>
@@ -17655,7 +17655,7 @@
         <v>26</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J276" s="1">
         <v>4</v>
@@ -17716,7 +17716,7 @@
         <v>26</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J277" s="1">
         <v>4</v>
@@ -17777,7 +17777,7 @@
         <v>26</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J278" s="1">
         <v>4</v>
@@ -17838,7 +17838,7 @@
         <v>26</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J279" s="1">
         <v>4</v>
@@ -17899,7 +17899,7 @@
         <v>26</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J280" s="1">
         <v>4</v>
@@ -18021,7 +18021,7 @@
         <v>23</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J282" s="1">
         <v>3</v>
@@ -18082,7 +18082,7 @@
         <v>23</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J283" s="1">
         <v>4</v>
@@ -18143,7 +18143,7 @@
         <v>23</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J284" s="1">
         <v>3</v>
@@ -18204,7 +18204,7 @@
         <v>23</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J285" s="1">
         <v>4</v>
@@ -18265,7 +18265,7 @@
         <v>23</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J286" s="1">
         <v>4</v>
@@ -18326,7 +18326,7 @@
         <v>23</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J287" s="1">
         <v>4</v>
@@ -18387,7 +18387,7 @@
         <v>23</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J288" s="1">
         <v>3</v>
@@ -18448,7 +18448,7 @@
         <v>23</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J289" s="1">
         <v>4</v>
@@ -18509,7 +18509,7 @@
         <v>23</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J290" s="1">
         <v>4</v>
@@ -18631,7 +18631,7 @@
         <v>19</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J292" s="1">
         <v>6</v>
@@ -18692,7 +18692,7 @@
         <v>19</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J293" s="1">
         <v>5</v>
@@ -18753,7 +18753,7 @@
         <v>19</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J294" s="1">
         <v>5</v>
@@ -18814,7 +18814,7 @@
         <v>19</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J295" s="1">
         <v>6</v>
@@ -18875,7 +18875,7 @@
         <v>19</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J296" s="1">
         <v>6</v>
@@ -18936,7 +18936,7 @@
         <v>19</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J297" s="1">
         <v>6</v>
@@ -18997,7 +18997,7 @@
         <v>19</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J298" s="1">
         <v>6</v>
@@ -19058,7 +19058,7 @@
         <v>19</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J299" s="1">
         <v>5</v>
@@ -19119,7 +19119,7 @@
         <v>19</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J300" s="1">
         <v>6</v>
@@ -19241,7 +19241,7 @@
         <v>40</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J302" s="2">
         <v>16</v>
@@ -19302,7 +19302,7 @@
         <v>40</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J303" s="2">
         <v>16</v>
@@ -19363,7 +19363,7 @@
         <v>40</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J304" s="2">
         <v>16</v>
@@ -19424,7 +19424,7 @@
         <v>40</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J305" s="2">
         <v>16</v>
@@ -19485,7 +19485,7 @@
         <v>40</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J306" s="2">
         <v>14</v>
@@ -19546,7 +19546,7 @@
         <v>40</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J307" s="2">
         <v>15</v>
@@ -19607,7 +19607,7 @@
         <v>40</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J308" s="2">
         <v>14</v>
@@ -19668,7 +19668,7 @@
         <v>40</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J309" s="2">
         <v>14</v>
@@ -19729,7 +19729,7 @@
         <v>40</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J310" s="2">
         <v>15</v>
@@ -19851,7 +19851,7 @@
         <v>37</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J312" s="2">
         <v>16</v>
@@ -19912,7 +19912,7 @@
         <v>37</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J313" s="2">
         <v>17</v>
@@ -19973,7 +19973,7 @@
         <v>37</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J314" s="2">
         <v>16</v>
@@ -20034,7 +20034,7 @@
         <v>37</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J315" s="2">
         <v>15</v>
@@ -20095,7 +20095,7 @@
         <v>37</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J316" s="2">
         <v>18</v>
@@ -20156,7 +20156,7 @@
         <v>37</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J317" s="2">
         <v>14</v>
@@ -20217,7 +20217,7 @@
         <v>37</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J318" s="2">
         <v>14</v>
@@ -20278,7 +20278,7 @@
         <v>37</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J319" s="2">
         <v>14</v>
@@ -20339,7 +20339,7 @@
         <v>37</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J320" s="2">
         <v>15</v>
@@ -20461,7 +20461,7 @@
         <v>38</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J322" s="2">
         <v>14</v>
@@ -20522,7 +20522,7 @@
         <v>38</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J323" s="2">
         <v>14</v>
@@ -20583,7 +20583,7 @@
         <v>38</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J324" s="2">
         <v>13</v>
@@ -20644,7 +20644,7 @@
         <v>38</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J325" s="2">
         <v>14</v>
@@ -20705,7 +20705,7 @@
         <v>38</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J326" s="2">
         <v>13</v>
@@ -20766,7 +20766,7 @@
         <v>38</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J327" s="2">
         <v>14</v>
@@ -20827,7 +20827,7 @@
         <v>38</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J328" s="2">
         <v>13</v>
@@ -20888,7 +20888,7 @@
         <v>38</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J329" s="2">
         <v>13</v>
@@ -20949,7 +20949,7 @@
         <v>38</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J330" s="2">
         <v>13</v>
@@ -21071,7 +21071,7 @@
         <v>38</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J332" s="2">
         <v>19</v>
@@ -21132,7 +21132,7 @@
         <v>38</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J333" s="2">
         <v>22</v>
@@ -21193,7 +21193,7 @@
         <v>38</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J334" s="2">
         <v>19</v>
@@ -21254,7 +21254,7 @@
         <v>38</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J335" s="2">
         <v>17</v>
@@ -21315,7 +21315,7 @@
         <v>38</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J336" s="2">
         <v>20</v>
@@ -21376,7 +21376,7 @@
         <v>38</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J337" s="2">
         <v>17</v>
@@ -21437,7 +21437,7 @@
         <v>38</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J338" s="2">
         <v>19</v>
@@ -21498,7 +21498,7 @@
         <v>38</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J339" s="2">
         <v>17</v>
@@ -21559,7 +21559,7 @@
         <v>38</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J340" s="2">
         <v>19</v>
@@ -21681,7 +21681,7 @@
         <v>37</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J342" s="2">
         <v>19</v>
@@ -21742,7 +21742,7 @@
         <v>37</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J343" s="2">
         <v>17</v>
@@ -21803,7 +21803,7 @@
         <v>37</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J344" s="2">
         <v>16</v>
@@ -21864,7 +21864,7 @@
         <v>37</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J345" s="2">
         <v>19</v>
@@ -21925,7 +21925,7 @@
         <v>37</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J346" s="2">
         <v>16</v>
@@ -21986,7 +21986,7 @@
         <v>37</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J347" s="2">
         <v>17</v>
@@ -22047,7 +22047,7 @@
         <v>37</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J348" s="2">
         <v>16</v>
@@ -22108,7 +22108,7 @@
         <v>37</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J349" s="2">
         <v>16</v>
@@ -22169,7 +22169,7 @@
         <v>37</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J350" s="2">
         <v>17</v>
@@ -22211,13 +22211,13 @@
         <v>14</v>
       </c>
       <c r="C351" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D351" t="s">
         <v>39</v>
       </c>
       <c r="E351" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F351" t="str">
         <f>VLOOKUP(E351,Courses!E$1:F$21,2,FALSE)</f>
@@ -22272,13 +22272,13 @@
         <v>14</v>
       </c>
       <c r="C352" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D352" t="s">
         <v>39</v>
       </c>
       <c r="E352" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F352" t="str">
         <f>VLOOKUP(E352,Courses!E$1:F$21,2,FALSE)</f>
@@ -22291,7 +22291,7 @@
         <v>19</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J352" s="1">
         <v>4</v>
@@ -22333,13 +22333,13 @@
         <v>14</v>
       </c>
       <c r="C353" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D353" t="s">
         <v>39</v>
       </c>
       <c r="E353" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F353" t="str">
         <f>VLOOKUP(E353,Courses!E$1:F$21,2,FALSE)</f>
@@ -22352,7 +22352,7 @@
         <v>19</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J353" s="1">
         <v>5</v>
@@ -22394,13 +22394,13 @@
         <v>14</v>
       </c>
       <c r="C354" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D354" t="s">
         <v>39</v>
       </c>
       <c r="E354" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F354" t="str">
         <f>VLOOKUP(E354,Courses!E$1:F$21,2,FALSE)</f>
@@ -22413,7 +22413,7 @@
         <v>19</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J354" s="1">
         <v>6</v>
@@ -22455,13 +22455,13 @@
         <v>14</v>
       </c>
       <c r="C355" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D355" t="s">
         <v>39</v>
       </c>
       <c r="E355" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F355" t="str">
         <f>VLOOKUP(E355,Courses!E$1:F$21,2,FALSE)</f>
@@ -22474,7 +22474,7 @@
         <v>19</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J355" s="1">
         <v>3</v>
@@ -22516,13 +22516,13 @@
         <v>14</v>
       </c>
       <c r="C356" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D356" t="s">
         <v>39</v>
       </c>
       <c r="E356" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F356" t="str">
         <f>VLOOKUP(E356,Courses!E$1:F$21,2,FALSE)</f>
@@ -22535,7 +22535,7 @@
         <v>19</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J356" s="1">
         <v>4</v>
@@ -22577,13 +22577,13 @@
         <v>14</v>
       </c>
       <c r="C357" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D357" t="s">
         <v>39</v>
       </c>
       <c r="E357" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F357" t="str">
         <f>VLOOKUP(E357,Courses!E$1:F$21,2,FALSE)</f>
@@ -22596,7 +22596,7 @@
         <v>19</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J357" s="1">
         <v>4</v>
@@ -22638,13 +22638,13 @@
         <v>14</v>
       </c>
       <c r="C358" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D358" t="s">
         <v>39</v>
       </c>
       <c r="E358" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F358" t="str">
         <f>VLOOKUP(E358,Courses!E$1:F$21,2,FALSE)</f>
@@ -22657,7 +22657,7 @@
         <v>19</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J358" s="1">
         <v>4</v>
@@ -22699,13 +22699,13 @@
         <v>14</v>
       </c>
       <c r="C359" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D359" t="s">
         <v>39</v>
       </c>
       <c r="E359" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F359" t="str">
         <f>VLOOKUP(E359,Courses!E$1:F$21,2,FALSE)</f>
@@ -22718,7 +22718,7 @@
         <v>19</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J359" s="1">
         <v>4</v>
@@ -22760,13 +22760,13 @@
         <v>14</v>
       </c>
       <c r="C360" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D360" t="s">
         <v>39</v>
       </c>
       <c r="E360" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F360" t="str">
         <f>VLOOKUP(E360,Courses!E$1:F$21,2,FALSE)</f>
@@ -22779,7 +22779,7 @@
         <v>19</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J360" s="1">
         <v>4</v>
@@ -22823,7 +22823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58A8AA7-DC45-4847-B0AA-C76B27A0E50B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -22849,13 +22849,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -22875,7 +22875,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -22901,7 +22901,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -22927,7 +22927,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -22953,7 +22953,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -22979,7 +22979,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -23005,7 +23005,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -23031,7 +23031,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -23057,7 +23057,7 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -23083,7 +23083,7 @@
         <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -23109,7 +23109,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -23135,7 +23135,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -23161,7 +23161,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -23187,7 +23187,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -23213,7 +23213,7 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -23239,7 +23239,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -23265,7 +23265,7 @@
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -23291,7 +23291,7 @@
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -23317,7 +23317,7 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -23343,7 +23343,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -23360,16 +23360,16 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
         <v>124</v>
-      </c>
-      <c r="F21" t="s">
-        <v>125</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -23387,21 +23387,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBF2E18-FF78-2845-9DE8-6D776AF5D270}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -23409,87 +23409,87 @@
         <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -23503,35 +23503,35 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -23539,10 +23539,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -23550,10 +23550,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
@@ -23589,18 +23589,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>85.6</v>
@@ -23612,7 +23612,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>85.6</v>
@@ -23624,7 +23624,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>86.85</v>
@@ -23636,7 +23636,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>86.85</v>
@@ -23648,7 +23648,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>86.08</v>
@@ -23660,7 +23660,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>86.08</v>
@@ -23672,7 +23672,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>89.86</v>
@@ -23684,7 +23684,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>90.47</v>
